--- a/data-raw/vocab.xlsx
+++ b/data-raw/vocab.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TXNguyen\Documents\GitHub\deltadata\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TXNguyen\Documents\GitHub\deltadata\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFA4E36-03B6-4CDC-AD93-401EBCF69BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B9ADB6-71C8-41D9-B959-22B66C3B8050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" tabRatio="227" xr2:uid="{954D08CE-A2BF-49C1-8AF9-792A340A95CF}"/>
   </bookViews>
@@ -83,9 +83,6 @@
     <t>Delta Smelt formalin preservation data</t>
   </si>
   <si>
-    <t>Delta boat electrofishing survey </t>
-  </si>
-  <si>
     <t>Electrofishing Units</t>
   </si>
   <si>
@@ -3422,6 +3419,9 @@
   </si>
   <si>
     <t>notes</t>
+  </si>
+  <si>
+    <t>Delta boat electrofishing survey</t>
   </si>
 </sst>
 </file>
@@ -4923,10 +4923,10 @@
   <dimension ref="A1:AC86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4964,34 +4964,34 @@
   <sheetData>
     <row r="1" spans="1:29" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>1031</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="C1" s="35" t="s">
         <v>1032</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="D1" s="36" t="s">
         <v>1033</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="E1" s="37" t="s">
         <v>1034</v>
       </c>
-      <c r="E1" s="37" t="s">
-        <v>1035</v>
-      </c>
       <c r="F1" s="38" t="s">
+        <v>977</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>911</v>
+      </c>
+      <c r="H1" s="30" t="s">
         <v>978</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>912</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>979</v>
       </c>
       <c r="I1" s="30" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="K1" s="30" t="s">
         <v>1</v>
@@ -5000,168 +5000,168 @@
         <v>2</v>
       </c>
       <c r="M1" s="30" t="s">
+        <v>1035</v>
+      </c>
+      <c r="N1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="O1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="P1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="Q1" s="30" t="s">
+        <v>980</v>
+      </c>
+      <c r="R1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="S1" s="30" t="s">
+        <v>932</v>
+      </c>
+      <c r="T1" s="30" t="s">
+        <v>933</v>
+      </c>
+      <c r="U1" s="30" t="s">
         <v>981</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="V1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="30" t="s">
-        <v>933</v>
-      </c>
-      <c r="T1" s="30" t="s">
-        <v>934</v>
-      </c>
-      <c r="U1" s="30" t="s">
+      <c r="W1" s="30" t="s">
         <v>982</v>
       </c>
-      <c r="V1" s="30" t="s">
+      <c r="X1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="W1" s="30" t="s">
+      <c r="Y1" s="30" t="s">
         <v>983</v>
       </c>
-      <c r="X1" s="30" t="s">
+      <c r="Z1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="30" t="s">
+      <c r="AA1" s="30" t="s">
         <v>984</v>
       </c>
-      <c r="Z1" s="30" t="s">
+      <c r="AB1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="AA1" s="30" t="s">
-        <v>985</v>
-      </c>
-      <c r="AB1" s="30" t="s">
-        <v>11</v>
-      </c>
       <c r="AC1" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B2" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="D2" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="E2" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="F2" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="K2" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="45" t="s">
+      <c r="L2" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="45" t="s">
+      <c r="O2" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="45" t="s">
+      <c r="P2" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="45" t="s">
+      <c r="R2" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="S2" s="45" t="s">
-        <v>19</v>
-      </c>
       <c r="T2" s="45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U2" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="45" t="s">
-        <v>14</v>
-      </c>
       <c r="W2" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="X2" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="45" t="s">
-        <v>14</v>
-      </c>
       <c r="Y2" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z2" s="45" t="s">
         <v>13</v>
-      </c>
-      <c r="Z2" s="45" t="s">
-        <v>14</v>
       </c>
       <c r="AA2" s="45"/>
       <c r="AB2" s="45"/>
       <c r="AC2" s="95" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B3" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="41" t="s">
-        <v>21</v>
-      </c>
       <c r="D3" s="42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="43"/>
       <c r="F3" s="44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" s="45"/>
       <c r="I3" s="45"/>
       <c r="J3" s="45"/>
       <c r="K3" s="45"/>
       <c r="L3" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M3" s="45"/>
       <c r="N3" s="45"/>
@@ -5182,30 +5182,30 @@
     </row>
     <row r="4" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B4" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="42" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>24</v>
       </c>
       <c r="E4" s="43"/>
       <c r="F4" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="45" t="s">
         <v>23</v>
-      </c>
-      <c r="G4" s="45" t="s">
-        <v>24</v>
       </c>
       <c r="H4" s="45"/>
       <c r="I4" s="45"/>
       <c r="J4" s="45"/>
       <c r="K4" s="45"/>
       <c r="L4" s="45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M4" s="45"/>
       <c r="N4" s="45"/>
@@ -5226,20 +5226,20 @@
     </row>
     <row r="5" spans="1:29" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B5" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="42" t="s">
         <v>26</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>27</v>
       </c>
       <c r="E5" s="43"/>
       <c r="F5" s="44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
@@ -5247,7 +5247,7 @@
       <c r="J5" s="45"/>
       <c r="K5" s="45"/>
       <c r="L5" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M5" s="45"/>
       <c r="N5" s="45"/>
@@ -5262,51 +5262,51 @@
       <c r="W5" s="45"/>
       <c r="X5" s="45"/>
       <c r="Y5" s="45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z5" s="45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA5" s="45"/>
       <c r="AB5" s="45"/>
     </row>
     <row r="6" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B6" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="D6" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="E6" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="F6" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="45" t="s">
         <v>33</v>
-      </c>
-      <c r="F6" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="45" t="s">
-        <v>34</v>
       </c>
       <c r="J6" s="45"/>
       <c r="K6" s="45"/>
       <c r="L6" s="45"/>
       <c r="M6" s="45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N6" s="45"/>
       <c r="O6" s="45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P6" s="45"/>
       <c r="Q6" s="45"/>
@@ -5318,7 +5318,7 @@
       <c r="W6" s="45"/>
       <c r="X6" s="45"/>
       <c r="Y6" s="45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z6" s="45"/>
       <c r="AA6" s="45"/>
@@ -5326,35 +5326,35 @@
     </row>
     <row r="7" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B7" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="43" t="s">
         <v>36</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="43" t="s">
-        <v>37</v>
       </c>
       <c r="F7" s="44"/>
       <c r="G7" s="45"/>
       <c r="H7" s="45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I7" s="45"/>
       <c r="J7" s="45"/>
       <c r="K7" s="45"/>
       <c r="L7" s="45"/>
       <c r="M7" s="45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N7" s="45"/>
       <c r="O7" s="45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P7" s="45"/>
       <c r="Q7" s="45"/>
@@ -5366,7 +5366,7 @@
       <c r="W7" s="45"/>
       <c r="X7" s="45"/>
       <c r="Y7" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z7" s="45"/>
       <c r="AA7" s="45"/>
@@ -5374,33 +5374,33 @@
     </row>
     <row r="8" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B8" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="41" t="s">
         <v>39</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>40</v>
       </c>
       <c r="D8" s="42"/>
       <c r="E8" s="43"/>
       <c r="F8" s="44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G8" s="45"/>
       <c r="H8" s="45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I8" s="45"/>
       <c r="J8" s="45"/>
       <c r="K8" s="45"/>
       <c r="L8" s="45"/>
       <c r="M8" s="45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N8" s="45"/>
       <c r="O8" s="45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P8" s="45"/>
       <c r="Q8" s="45"/>
@@ -5412,7 +5412,7 @@
       <c r="W8" s="45"/>
       <c r="X8" s="45"/>
       <c r="Y8" s="45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Z8" s="45"/>
       <c r="AA8" s="45"/>
@@ -5420,33 +5420,33 @@
     </row>
     <row r="9" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="42"/>
       <c r="E9" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" s="44"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I9" s="45"/>
       <c r="J9" s="45"/>
       <c r="K9" s="45"/>
       <c r="L9" s="45"/>
       <c r="M9" s="45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N9" s="45"/>
       <c r="O9" s="45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P9" s="45"/>
       <c r="Q9" s="45"/>
@@ -5464,92 +5464,92 @@
     </row>
     <row r="10" spans="1:29" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B10" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="41" t="s">
         <v>45</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>46</v>
       </c>
       <c r="D10" s="42"/>
       <c r="E10" s="43"/>
       <c r="F10" s="44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G10" s="45"/>
       <c r="H10" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" s="45"/>
       <c r="J10" s="45"/>
       <c r="K10" s="45"/>
       <c r="L10" s="45"/>
       <c r="M10" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N10" s="45"/>
       <c r="O10" s="45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P10" s="45"/>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R10" s="45"/>
       <c r="S10" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T10" s="45"/>
       <c r="U10" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V10" s="45"/>
       <c r="W10" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X10" s="45"/>
       <c r="Y10" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Z10" s="45"/>
       <c r="AA10" s="45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB10" s="45"/>
       <c r="AC10" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B11" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="41" t="s">
         <v>48</v>
-      </c>
-      <c r="C11" s="41" t="s">
-        <v>49</v>
       </c>
       <c r="D11" s="42"/>
       <c r="E11" s="43"/>
       <c r="F11" s="44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" s="45"/>
       <c r="H11" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I11" s="45"/>
       <c r="J11" s="45"/>
       <c r="K11" s="45"/>
       <c r="L11" s="45"/>
       <c r="M11" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N11" s="45"/>
       <c r="O11" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P11" s="45"/>
       <c r="Q11" s="45"/>
@@ -5563,48 +5563,48 @@
       <c r="Y11" s="45"/>
       <c r="Z11" s="45"/>
       <c r="AA11" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB11" s="45" t="s">
         <v>50</v>
-      </c>
-      <c r="AB11" s="45" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B12" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="41" t="s">
         <v>52</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>53</v>
       </c>
       <c r="D12" s="42"/>
       <c r="E12" s="43"/>
       <c r="F12" s="44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G12" s="45"/>
       <c r="H12" s="45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I12" s="45"/>
       <c r="J12" s="45"/>
       <c r="K12" s="45"/>
       <c r="L12" s="45"/>
       <c r="M12" s="45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N12" s="45"/>
       <c r="O12" s="45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P12" s="45"/>
       <c r="Q12" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="R12" s="45" t="s">
         <v>54</v>
-      </c>
-      <c r="R12" s="45" t="s">
-        <v>55</v>
       </c>
       <c r="S12" s="45"/>
       <c r="T12" s="45"/>
@@ -5613,45 +5613,45 @@
       <c r="W12" s="45"/>
       <c r="X12" s="45"/>
       <c r="Y12" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z12" s="45" t="s">
         <v>54</v>
-      </c>
-      <c r="Z12" s="45" t="s">
-        <v>55</v>
       </c>
       <c r="AA12" s="45"/>
       <c r="AB12" s="45"/>
     </row>
     <row r="13" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="42"/>
       <c r="E13" s="43"/>
       <c r="F13" s="44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G13" s="45"/>
       <c r="H13" s="45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I13" s="45"/>
       <c r="J13" s="45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K13" s="45"/>
       <c r="L13" s="45"/>
       <c r="M13" s="45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N13" s="45"/>
       <c r="O13" s="45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P13" s="45"/>
       <c r="Q13" s="45"/>
@@ -5665,39 +5665,39 @@
       <c r="Y13" s="45"/>
       <c r="Z13" s="45"/>
       <c r="AA13" s="45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB13" s="45"/>
     </row>
     <row r="14" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="40" t="s">
-        <v>59</v>
-      </c>
       <c r="C14" s="41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="47"/>
       <c r="E14" s="48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F14" s="44"/>
       <c r="G14" s="45"/>
       <c r="H14" s="45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I14" s="45"/>
       <c r="J14" s="45"/>
       <c r="K14" s="45"/>
       <c r="L14" s="45"/>
       <c r="M14" s="45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N14" s="45"/>
       <c r="O14" s="45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P14" s="45"/>
       <c r="Q14" s="45"/>
@@ -5715,35 +5715,35 @@
     </row>
     <row r="15" spans="1:29" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="41" t="s">
         <v>61</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>62</v>
       </c>
       <c r="D15" s="42"/>
       <c r="E15" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F15" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G15" s="45"/>
       <c r="H15" s="45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="45"/>
       <c r="J15" s="45"/>
       <c r="K15" s="45"/>
       <c r="L15" s="45"/>
       <c r="M15" s="45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N15" s="45"/>
       <c r="O15" s="45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P15" s="45"/>
       <c r="Q15" s="45"/>
@@ -5761,35 +5761,35 @@
     </row>
     <row r="16" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="41" t="s">
         <v>64</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>65</v>
       </c>
       <c r="D16" s="42"/>
       <c r="E16" s="48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F16" s="44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G16" s="45"/>
       <c r="H16" s="45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I16" s="45"/>
       <c r="J16" s="45"/>
       <c r="K16" s="45"/>
       <c r="L16" s="45"/>
       <c r="M16" s="45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N16" s="45"/>
       <c r="O16" s="45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P16" s="45"/>
       <c r="Q16" s="45"/>
@@ -5807,35 +5807,35 @@
     </row>
     <row r="17" spans="1:29" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="41" t="s">
         <v>67</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>68</v>
       </c>
       <c r="D17" s="42"/>
       <c r="E17" s="48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F17" s="44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G17" s="45"/>
       <c r="H17" s="45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I17" s="45"/>
       <c r="J17" s="45"/>
       <c r="K17" s="45"/>
       <c r="L17" s="45"/>
       <c r="M17" s="45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N17" s="45"/>
       <c r="O17" s="45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P17" s="45"/>
       <c r="Q17" s="45"/>
@@ -5853,35 +5853,35 @@
     </row>
     <row r="18" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B18" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="41" t="s">
         <v>70</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>71</v>
       </c>
       <c r="D18" s="42"/>
       <c r="E18" s="48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F18" s="44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G18" s="45"/>
       <c r="H18" s="45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="45"/>
       <c r="K18" s="45"/>
       <c r="L18" s="45"/>
       <c r="M18" s="45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N18" s="45"/>
       <c r="O18" s="45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P18" s="45"/>
       <c r="Q18" s="45"/>
@@ -5899,20 +5899,20 @@
     </row>
     <row r="19" spans="1:29" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B19" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="41" t="s">
         <v>73</v>
-      </c>
-      <c r="C19" s="41" t="s">
-        <v>74</v>
       </c>
       <c r="D19" s="42"/>
       <c r="E19" s="48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F19" s="44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
@@ -5939,20 +5939,20 @@
     </row>
     <row r="20" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="41" t="s">
         <v>76</v>
-      </c>
-      <c r="C20" s="41" t="s">
-        <v>77</v>
       </c>
       <c r="D20" s="42"/>
       <c r="E20" s="48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F20" s="44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
@@ -5979,33 +5979,33 @@
     </row>
     <row r="21" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B21" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="41" t="s">
         <v>79</v>
-      </c>
-      <c r="C21" s="41" t="s">
-        <v>80</v>
       </c>
       <c r="D21" s="42"/>
       <c r="E21" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F21" s="44"/>
       <c r="G21" s="45"/>
       <c r="H21" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I21" s="45"/>
       <c r="J21" s="45"/>
       <c r="K21" s="45"/>
       <c r="L21" s="45"/>
       <c r="M21" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N21" s="45"/>
       <c r="O21" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P21" s="45"/>
       <c r="Q21" s="45"/>
@@ -6023,33 +6023,33 @@
     </row>
     <row r="22" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" s="41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D22" s="42"/>
       <c r="E22" s="48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F22" s="44"/>
       <c r="G22" s="45"/>
       <c r="H22" s="45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I22" s="45"/>
       <c r="J22" s="45"/>
       <c r="K22" s="45"/>
       <c r="L22" s="45"/>
       <c r="M22" s="45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N22" s="45"/>
       <c r="O22" s="45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P22" s="45"/>
       <c r="Q22" s="45"/>
@@ -6067,33 +6067,33 @@
     </row>
     <row r="23" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B23" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="41" t="s">
         <v>84</v>
-      </c>
-      <c r="C23" s="41" t="s">
-        <v>85</v>
       </c>
       <c r="D23" s="42"/>
       <c r="E23" s="48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F23" s="44"/>
       <c r="G23" s="45"/>
       <c r="H23" s="45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I23" s="45"/>
       <c r="J23" s="45"/>
       <c r="K23" s="45"/>
       <c r="L23" s="45"/>
       <c r="M23" s="45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N23" s="45"/>
       <c r="O23" s="45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P23" s="45"/>
       <c r="Q23" s="45"/>
@@ -6111,33 +6111,33 @@
     </row>
     <row r="24" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B24" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="41" t="s">
         <v>87</v>
-      </c>
-      <c r="C24" s="41" t="s">
-        <v>88</v>
       </c>
       <c r="D24" s="42"/>
       <c r="E24" s="48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F24" s="44"/>
       <c r="G24" s="45"/>
       <c r="H24" s="45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I24" s="45"/>
       <c r="J24" s="45"/>
       <c r="K24" s="45"/>
       <c r="L24" s="45"/>
       <c r="M24" s="45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N24" s="45"/>
       <c r="O24" s="45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P24" s="45"/>
       <c r="Q24" s="45"/>
@@ -6155,97 +6155,97 @@
     </row>
     <row r="25" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="C25" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="41" t="s">
+      <c r="D25" s="42" t="s">
         <v>92</v>
-      </c>
-      <c r="D25" s="42" t="s">
-        <v>93</v>
       </c>
       <c r="E25" s="43"/>
       <c r="F25" s="44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G25" s="45"/>
       <c r="H25" s="45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J25" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="K25" s="45" t="s">
         <v>94</v>
-      </c>
-      <c r="J25" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="K25" s="45" t="s">
-        <v>95</v>
       </c>
       <c r="L25" s="45"/>
       <c r="M25" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O25" s="45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q25" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="R25" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="S25" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="R25" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="S25" s="45" t="s">
-        <v>92</v>
-      </c>
       <c r="T25" s="45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U25" s="45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V25" s="45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="W25" s="45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X25" s="45"/>
       <c r="Y25" s="45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z25" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA25" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB25" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="AA25" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB25" s="45" t="s">
-        <v>97</v>
-      </c>
       <c r="AC25" s="95" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B26" s="40" t="s">
+        <v>925</v>
+      </c>
+      <c r="C26" s="41" t="s">
         <v>926</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="D26" s="42" t="s">
         <v>927</v>
-      </c>
-      <c r="D26" s="42" t="s">
-        <v>928</v>
       </c>
       <c r="E26" s="43"/>
       <c r="F26" s="44"/>
@@ -6274,16 +6274,16 @@
     </row>
     <row r="27" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B27" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="D27" s="50" t="s">
         <v>99</v>
-      </c>
-      <c r="D27" s="50" t="s">
-        <v>100</v>
       </c>
       <c r="E27" s="43"/>
       <c r="F27" s="44"/>
@@ -6298,61 +6298,61 @@
       <c r="O27" s="45"/>
       <c r="P27" s="45"/>
       <c r="Q27" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="R27" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="S27" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="T27" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="U27" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="V27" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="W27" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="R27" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="S27" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="T27" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="U27" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="V27" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="W27" s="45" t="s">
+      <c r="X27" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="X27" s="22" t="s">
-        <v>100</v>
-      </c>
       <c r="Y27" s="45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Z27" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AA27" s="45"/>
       <c r="AB27" s="45"/>
       <c r="AC27" s="95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B28" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="41" t="s">
         <v>101</v>
-      </c>
-      <c r="C28" s="41" t="s">
-        <v>102</v>
       </c>
       <c r="D28" s="51">
         <v>1</v>
       </c>
       <c r="E28" s="43"/>
       <c r="F28" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G28" s="45"/>
       <c r="H28" s="45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I28" s="52">
         <v>1</v>
@@ -6363,7 +6363,7 @@
       <c r="M28" s="7"/>
       <c r="N28" s="45"/>
       <c r="O28" s="45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P28" s="52">
         <v>1</v>
@@ -6381,18 +6381,18 @@
       <c r="AA28" s="45"/>
       <c r="AB28" s="45"/>
       <c r="AC28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B29" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="41" t="s">
         <v>103</v>
-      </c>
-      <c r="C29" s="41" t="s">
-        <v>104</v>
       </c>
       <c r="D29" s="51">
         <v>1</v>
@@ -6403,12 +6403,12 @@
       <c r="H29" s="45"/>
       <c r="I29" s="45"/>
       <c r="J29" s="53" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K29" s="45"/>
       <c r="L29" s="45"/>
       <c r="M29" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N29" s="52">
         <v>1</v>
@@ -6416,37 +6416,37 @@
       <c r="O29" s="45"/>
       <c r="P29" s="45"/>
       <c r="Q29" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R29" s="54">
         <v>1</v>
       </c>
       <c r="S29" s="45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T29" s="54">
         <v>1</v>
       </c>
       <c r="U29" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="V29" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="V29" s="22" t="s">
+      <c r="W29" s="45" t="s">
         <v>109</v>
-      </c>
-      <c r="W29" s="45" t="s">
-        <v>110</v>
       </c>
       <c r="X29" s="54">
         <v>1</v>
       </c>
       <c r="Y29" s="45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Z29" s="54">
         <v>1</v>
       </c>
       <c r="AA29" s="54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AB29" s="54">
         <v>1</v>
@@ -6454,13 +6454,13 @@
     </row>
     <row r="30" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B30" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="41" t="s">
         <v>112</v>
-      </c>
-      <c r="C30" s="41" t="s">
-        <v>113</v>
       </c>
       <c r="D30" s="51">
         <v>1</v>
@@ -6474,7 +6474,7 @@
       <c r="K30" s="45"/>
       <c r="L30" s="45"/>
       <c r="M30" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N30" s="52">
         <v>1</v>
@@ -6486,19 +6486,19 @@
       <c r="S30" s="45"/>
       <c r="T30" s="45"/>
       <c r="U30" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="V30" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="W30" s="45" t="s">
         <v>115</v>
-      </c>
-      <c r="V30" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="W30" s="45" t="s">
-        <v>116</v>
       </c>
       <c r="X30" s="54">
         <v>1</v>
       </c>
       <c r="Y30" s="45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z30" s="54">
         <v>1</v>
@@ -6508,29 +6508,29 @@
     </row>
     <row r="31" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B31" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="C31" s="41" t="s">
+      <c r="D31" s="42" t="s">
         <v>119</v>
-      </c>
-      <c r="D31" s="42" t="s">
-        <v>120</v>
       </c>
       <c r="E31" s="43"/>
       <c r="F31" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="G31" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="G31" s="45" t="s">
-        <v>120</v>
-      </c>
       <c r="H31" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="I31" s="45" t="s">
         <v>119</v>
-      </c>
-      <c r="I31" s="45" t="s">
-        <v>120</v>
       </c>
       <c r="J31" s="45"/>
       <c r="K31" s="45"/>
@@ -6538,10 +6538,10 @@
       <c r="M31" s="7"/>
       <c r="N31" s="45"/>
       <c r="O31" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="P31" s="45" t="s">
         <v>119</v>
-      </c>
-      <c r="P31" s="45" t="s">
-        <v>120</v>
       </c>
       <c r="Q31" s="45"/>
       <c r="R31" s="45"/>
@@ -6558,16 +6558,16 @@
     </row>
     <row r="32" spans="1:29" ht="63" x14ac:dyDescent="0.25">
       <c r="A32" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B32" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="C32" s="41" t="s">
-        <v>122</v>
-      </c>
       <c r="D32" s="42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E32" s="43"/>
       <c r="F32" s="44"/>
@@ -6575,65 +6575,65 @@
       <c r="H32" s="45"/>
       <c r="I32" s="45"/>
       <c r="J32" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="K32" s="45" t="s">
         <v>122</v>
-      </c>
-      <c r="K32" s="45" t="s">
-        <v>123</v>
       </c>
       <c r="L32" s="45"/>
       <c r="M32" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="N32" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="O32" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="P32" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q32" s="22" t="s">
+        <v>928</v>
+      </c>
+      <c r="R32" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="N32" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="O32" s="45" t="s">
+      <c r="S32" s="22" t="s">
+        <v>928</v>
+      </c>
+      <c r="T32" s="22" t="s">
         <v>122</v>
-      </c>
-      <c r="P32" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q32" s="22" t="s">
-        <v>929</v>
-      </c>
-      <c r="R32" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="S32" s="22" t="s">
-        <v>929</v>
-      </c>
-      <c r="T32" s="22" t="s">
-        <v>123</v>
       </c>
       <c r="U32" s="22"/>
       <c r="V32" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="W32" s="45"/>
       <c r="X32" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y32" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="Y32" s="45" t="s">
-        <v>124</v>
-      </c>
       <c r="Z32" s="45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AA32" s="45"/>
       <c r="AB32" s="45"/>
       <c r="AC32" s="95" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="33" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B33" s="40" t="s">
+        <v>941</v>
+      </c>
+      <c r="C33" s="41" t="s">
         <v>942</v>
-      </c>
-      <c r="C33" s="41" t="s">
-        <v>943</v>
       </c>
       <c r="D33" s="42"/>
       <c r="E33" s="43"/>
@@ -6649,19 +6649,19 @@
       <c r="O33" s="45"/>
       <c r="P33" s="45"/>
       <c r="Q33" s="22" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="R33" s="22"/>
       <c r="S33" s="22" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="T33" s="22"/>
       <c r="U33" s="45" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="V33" s="22"/>
       <c r="W33" s="45" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="X33" s="45"/>
       <c r="Y33" s="45"/>
@@ -6671,13 +6671,13 @@
     </row>
     <row r="34" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B34" s="40" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C34" s="41" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D34" s="42"/>
       <c r="E34" s="43"/>
@@ -6693,19 +6693,19 @@
       <c r="O34" s="45"/>
       <c r="P34" s="45"/>
       <c r="Q34" s="22" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="R34" s="22"/>
       <c r="S34" s="22" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="T34" s="22"/>
       <c r="U34" s="45" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="V34" s="22"/>
       <c r="W34" s="45" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="X34" s="45"/>
       <c r="Y34" s="45"/>
@@ -6715,13 +6715,13 @@
     </row>
     <row r="35" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B35" s="40" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C35" s="41" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D35" s="42"/>
       <c r="E35" s="43"/>
@@ -6737,19 +6737,19 @@
       <c r="O35" s="45"/>
       <c r="P35" s="45"/>
       <c r="Q35" s="22" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="R35" s="22"/>
       <c r="S35" s="22" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="T35" s="22"/>
       <c r="U35" s="45" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="V35" s="22"/>
       <c r="W35" s="45" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="X35" s="45"/>
       <c r="Y35" s="45"/>
@@ -6759,13 +6759,13 @@
     </row>
     <row r="36" spans="1:29" ht="63" x14ac:dyDescent="0.25">
       <c r="A36" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B36" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" s="41" t="s">
         <v>126</v>
-      </c>
-      <c r="C36" s="41" t="s">
-        <v>127</v>
       </c>
       <c r="D36" s="42"/>
       <c r="E36" s="43"/>
@@ -6774,59 +6774,59 @@
       <c r="H36" s="45"/>
       <c r="I36" s="45"/>
       <c r="J36" s="45" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K36" s="45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L36" s="45"/>
       <c r="M36" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N36" s="45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O36" s="45" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P36" s="45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q36" s="22" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="R36" s="22"/>
       <c r="S36" s="22" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="T36" s="45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U36" s="22"/>
       <c r="V36" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="W36" s="45"/>
       <c r="X36" s="45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Y36" s="45"/>
       <c r="Z36" s="45"/>
       <c r="AA36" s="45"/>
       <c r="AB36" s="45"/>
       <c r="AC36" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="37" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B37" s="40" t="s">
+        <v>968</v>
+      </c>
+      <c r="C37" s="41" t="s">
         <v>969</v>
-      </c>
-      <c r="C37" s="41" t="s">
-        <v>970</v>
       </c>
       <c r="D37" s="42"/>
       <c r="E37" s="43"/>
@@ -6842,19 +6842,19 @@
       <c r="O37" s="45"/>
       <c r="P37" s="45"/>
       <c r="Q37" s="22" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="R37" s="22"/>
       <c r="S37" s="22" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="T37" s="22"/>
       <c r="U37" s="45" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="V37" s="22"/>
       <c r="W37" s="45" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="X37" s="45"/>
       <c r="Y37" s="45"/>
@@ -6864,13 +6864,13 @@
     </row>
     <row r="38" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B38" s="40" t="s">
+        <v>970</v>
+      </c>
+      <c r="C38" s="41" t="s">
         <v>971</v>
-      </c>
-      <c r="C38" s="41" t="s">
-        <v>972</v>
       </c>
       <c r="D38" s="42"/>
       <c r="E38" s="43"/>
@@ -6886,19 +6886,19 @@
       <c r="O38" s="45"/>
       <c r="P38" s="45"/>
       <c r="Q38" s="22" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="R38" s="22"/>
       <c r="S38" s="22" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="T38" s="22"/>
       <c r="U38" s="45" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="V38" s="22"/>
       <c r="W38" s="45" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="X38" s="45"/>
       <c r="Y38" s="45"/>
@@ -6908,13 +6908,13 @@
     </row>
     <row r="39" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B39" s="40" t="s">
+        <v>972</v>
+      </c>
+      <c r="C39" s="41" t="s">
         <v>973</v>
-      </c>
-      <c r="C39" s="41" t="s">
-        <v>974</v>
       </c>
       <c r="D39" s="42"/>
       <c r="E39" s="43"/>
@@ -6930,19 +6930,19 @@
       <c r="O39" s="45"/>
       <c r="P39" s="45"/>
       <c r="Q39" s="22" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="R39" s="22"/>
       <c r="S39" s="22" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="T39" s="22"/>
       <c r="U39" s="45" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="V39" s="22"/>
       <c r="W39" s="45" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="X39" s="45"/>
       <c r="Y39" s="45"/>
@@ -6952,29 +6952,29 @@
     </row>
     <row r="40" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B40" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="C40" s="41" t="s">
-        <v>129</v>
-      </c>
       <c r="D40" s="42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E40" s="43"/>
       <c r="F40" s="44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G40" s="45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H40" s="45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I40" s="45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J40" s="45"/>
       <c r="K40" s="45"/>
@@ -6982,10 +6982,10 @@
       <c r="M40" s="7"/>
       <c r="N40" s="45"/>
       <c r="O40" s="45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P40" s="45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q40" s="22"/>
       <c r="R40" s="22"/>
@@ -7002,16 +7002,16 @@
     </row>
     <row r="41" spans="1:29" ht="63" x14ac:dyDescent="0.25">
       <c r="A41" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B41" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="C41" s="41" t="s">
-        <v>131</v>
-      </c>
       <c r="D41" s="42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E41" s="43"/>
       <c r="F41" s="44"/>
@@ -7019,65 +7019,65 @@
       <c r="H41" s="45"/>
       <c r="I41" s="45"/>
       <c r="J41" s="45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K41" s="45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L41" s="45"/>
       <c r="M41" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N41" s="45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O41" s="45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P41" s="45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q41" s="22" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="R41" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S41" s="22" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="T41" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U41" s="22"/>
       <c r="V41" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="W41" s="45"/>
       <c r="X41" s="45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Y41" s="45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Z41" s="45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AA41" s="45"/>
       <c r="AB41" s="45"/>
       <c r="AC41" s="95" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="42" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B42" s="40" t="s">
+        <v>950</v>
+      </c>
+      <c r="C42" s="41" t="s">
         <v>951</v>
-      </c>
-      <c r="C42" s="41" t="s">
-        <v>952</v>
       </c>
       <c r="D42" s="42"/>
       <c r="E42" s="43"/>
@@ -7093,19 +7093,19 @@
       <c r="O42" s="45"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="22" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="R42" s="22"/>
       <c r="S42" s="22" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="T42" s="22"/>
       <c r="U42" s="45" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="V42" s="22"/>
       <c r="W42" s="45" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="X42" s="45"/>
       <c r="Y42" s="45"/>
@@ -7115,13 +7115,13 @@
     </row>
     <row r="43" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B43" s="40" t="s">
+        <v>952</v>
+      </c>
+      <c r="C43" s="41" t="s">
         <v>953</v>
-      </c>
-      <c r="C43" s="41" t="s">
-        <v>954</v>
       </c>
       <c r="D43" s="42"/>
       <c r="E43" s="43"/>
@@ -7137,19 +7137,19 @@
       <c r="O43" s="45"/>
       <c r="P43" s="45"/>
       <c r="Q43" s="22" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="R43" s="22"/>
       <c r="S43" s="22" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="T43" s="22"/>
       <c r="U43" s="45" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="V43" s="22"/>
       <c r="W43" s="45" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="X43" s="45"/>
       <c r="Y43" s="45"/>
@@ -7159,13 +7159,13 @@
     </row>
     <row r="44" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B44" s="40" t="s">
+        <v>954</v>
+      </c>
+      <c r="C44" s="41" t="s">
         <v>955</v>
-      </c>
-      <c r="C44" s="41" t="s">
-        <v>956</v>
       </c>
       <c r="D44" s="42"/>
       <c r="E44" s="43"/>
@@ -7181,19 +7181,19 @@
       <c r="O44" s="45"/>
       <c r="P44" s="45"/>
       <c r="Q44" s="22" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="R44" s="22"/>
       <c r="S44" s="22" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="T44" s="22"/>
       <c r="U44" s="45" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="V44" s="22"/>
       <c r="W44" s="45" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="X44" s="45"/>
       <c r="Y44" s="45"/>
@@ -7203,16 +7203,16 @@
     </row>
     <row r="45" spans="1:29" ht="63" x14ac:dyDescent="0.25">
       <c r="A45" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B45" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="C45" s="41" t="s">
-        <v>134</v>
-      </c>
       <c r="D45" s="42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E45" s="43"/>
       <c r="F45" s="44"/>
@@ -7220,59 +7220,59 @@
       <c r="H45" s="45"/>
       <c r="I45" s="45"/>
       <c r="J45" s="45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K45" s="45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L45" s="45"/>
       <c r="M45" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N45" s="45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O45" s="45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P45" s="45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q45" s="45" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="R45" s="45"/>
       <c r="S45" s="45" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="T45" s="45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U45" s="22"/>
       <c r="V45" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="W45" s="45"/>
       <c r="X45" s="45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Y45" s="45"/>
       <c r="Z45" s="45"/>
       <c r="AA45" s="45"/>
       <c r="AB45" s="45"/>
       <c r="AC45" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="46" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B46" s="40" t="s">
+        <v>956</v>
+      </c>
+      <c r="C46" s="41" t="s">
         <v>957</v>
-      </c>
-      <c r="C46" s="41" t="s">
-        <v>958</v>
       </c>
       <c r="D46" s="42"/>
       <c r="E46" s="43"/>
@@ -7288,19 +7288,19 @@
       <c r="O46" s="45"/>
       <c r="P46" s="45"/>
       <c r="Q46" s="22" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="R46" s="22"/>
       <c r="S46" s="22" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="T46" s="22"/>
       <c r="U46" s="45" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="V46" s="22"/>
       <c r="W46" s="45" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="X46" s="45"/>
       <c r="Y46" s="45"/>
@@ -7310,13 +7310,13 @@
     </row>
     <row r="47" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B47" s="40" t="s">
+        <v>959</v>
+      </c>
+      <c r="C47" s="41" t="s">
         <v>960</v>
-      </c>
-      <c r="C47" s="41" t="s">
-        <v>961</v>
       </c>
       <c r="D47" s="42"/>
       <c r="E47" s="43"/>
@@ -7332,19 +7332,19 @@
       <c r="O47" s="45"/>
       <c r="P47" s="45"/>
       <c r="Q47" s="22" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="R47" s="22"/>
       <c r="S47" s="22" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="T47" s="22"/>
       <c r="U47" s="45" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="V47" s="22"/>
       <c r="W47" s="45" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="X47" s="45"/>
       <c r="Y47" s="45"/>
@@ -7354,13 +7354,13 @@
     </row>
     <row r="48" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B48" s="40" t="s">
+        <v>962</v>
+      </c>
+      <c r="C48" s="41" t="s">
         <v>963</v>
-      </c>
-      <c r="C48" s="41" t="s">
-        <v>964</v>
       </c>
       <c r="D48" s="42"/>
       <c r="E48" s="43"/>
@@ -7376,19 +7376,19 @@
       <c r="O48" s="45"/>
       <c r="P48" s="45"/>
       <c r="Q48" s="22" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="R48" s="22"/>
       <c r="S48" s="22" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="T48" s="22"/>
       <c r="U48" s="45" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="V48" s="22"/>
       <c r="W48" s="45" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="X48" s="45"/>
       <c r="Y48" s="45"/>
@@ -7398,138 +7398,138 @@
     </row>
     <row r="49" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B49" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="C49" s="41" t="s">
         <v>135</v>
-      </c>
-      <c r="C49" s="41" t="s">
-        <v>136</v>
       </c>
       <c r="D49" s="47"/>
       <c r="E49" s="43"/>
       <c r="F49" s="44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G49" s="45"/>
       <c r="H49" s="45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I49" s="45"/>
       <c r="J49" s="45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K49" s="45"/>
       <c r="L49" s="45"/>
       <c r="M49" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N49" s="45"/>
       <c r="O49" s="45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P49" s="45"/>
       <c r="Q49" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R49" s="22"/>
       <c r="S49" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T49" s="22"/>
       <c r="U49" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="V49" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="W49" s="45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X49" s="45"/>
       <c r="Y49" s="45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z49" s="45"/>
       <c r="AA49" s="45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AB49" s="45"/>
       <c r="AC49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A50" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B50" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="C50" s="41" t="s">
         <v>139</v>
-      </c>
-      <c r="C50" s="41" t="s">
-        <v>140</v>
       </c>
       <c r="D50" s="42"/>
       <c r="E50" s="43"/>
       <c r="F50" s="44" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G50" s="45"/>
       <c r="H50" s="45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I50" s="45"/>
       <c r="J50" s="45" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K50" s="45"/>
       <c r="L50" s="45"/>
       <c r="M50" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N50" s="45"/>
       <c r="O50" s="45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P50" s="45"/>
       <c r="Q50" s="22"/>
       <c r="R50" s="22"/>
       <c r="S50" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="T50" s="22" t="s">
         <v>142</v>
-      </c>
-      <c r="T50" s="22" t="s">
-        <v>143</v>
       </c>
       <c r="U50" s="45"/>
       <c r="V50" s="45"/>
       <c r="W50" s="45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X50" s="45"/>
       <c r="Y50" s="45"/>
       <c r="Z50" s="45"/>
       <c r="AA50" s="45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AB50" s="45"/>
     </row>
     <row r="51" spans="1:29" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A51" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B51" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="C51" s="41" t="s">
         <v>144</v>
-      </c>
-      <c r="C51" s="41" t="s">
-        <v>145</v>
       </c>
       <c r="D51" s="42"/>
       <c r="E51" s="43"/>
       <c r="F51" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="G51" s="55" t="s">
         <v>146</v>
-      </c>
-      <c r="G51" s="55" t="s">
-        <v>147</v>
       </c>
       <c r="H51" s="45"/>
       <c r="I51" s="45"/>
@@ -7537,7 +7537,7 @@
       <c r="K51" s="45"/>
       <c r="L51" s="45"/>
       <c r="M51" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N51" s="45"/>
       <c r="O51" s="45"/>
@@ -7549,50 +7549,50 @@
       <c r="U51" s="45"/>
       <c r="V51" s="45"/>
       <c r="W51" s="45" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="X51" s="45"/>
       <c r="Y51" s="45"/>
       <c r="Z51" s="45"/>
       <c r="AA51" s="45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AB51" s="45"/>
       <c r="AC51" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="63" x14ac:dyDescent="0.25">
       <c r="A52" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B52" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="C52" s="41" t="s">
         <v>148</v>
-      </c>
-      <c r="C52" s="41" t="s">
-        <v>149</v>
       </c>
       <c r="D52" s="42"/>
       <c r="E52" s="43"/>
       <c r="F52" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="G52" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="G52" s="55" t="s">
-        <v>150</v>
-      </c>
       <c r="H52" s="45" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I52" s="45"/>
       <c r="J52" s="45"/>
       <c r="K52" s="45"/>
       <c r="L52" s="45"/>
       <c r="M52" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N52" s="45"/>
       <c r="O52" s="45" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P52" s="45"/>
       <c r="Q52" s="45"/>
@@ -7610,29 +7610,29 @@
     </row>
     <row r="53" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B53" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="C53" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="C53" s="41" t="s">
-        <v>152</v>
-      </c>
       <c r="D53" s="42" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E53" s="43"/>
       <c r="F53" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="G53" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="G53" s="45" t="s">
-        <v>153</v>
-      </c>
       <c r="H53" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="I53" s="45" t="s">
         <v>152</v>
-      </c>
-      <c r="I53" s="45" t="s">
-        <v>153</v>
       </c>
       <c r="J53" s="45"/>
       <c r="K53" s="45"/>
@@ -7656,29 +7656,29 @@
     </row>
     <row r="54" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B54" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="C54" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="C54" s="41" t="s">
-        <v>155</v>
-      </c>
       <c r="D54" s="42" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E54" s="43"/>
       <c r="F54" s="44" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G54" s="45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H54" s="45" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I54" s="45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J54" s="45"/>
       <c r="K54" s="45"/>
@@ -7702,29 +7702,29 @@
     </row>
     <row r="55" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B55" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="C55" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="C55" s="41" t="s">
-        <v>157</v>
-      </c>
       <c r="D55" s="42" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E55" s="43"/>
       <c r="F55" s="44" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G55" s="45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H55" s="45" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I55" s="45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J55" s="45"/>
       <c r="K55" s="45"/>
@@ -7744,27 +7744,27 @@
       <c r="Y55" s="45"/>
       <c r="Z55" s="45"/>
       <c r="AA55" s="45" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AB55" s="45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B56" s="40" t="s">
+        <v>912</v>
+      </c>
+      <c r="C56" s="41" t="s">
         <v>913</v>
       </c>
-      <c r="C56" s="41" t="s">
-        <v>914</v>
-      </c>
       <c r="D56" s="42" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E56" s="43" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F56" s="44"/>
       <c r="G56" s="45"/>
@@ -7778,21 +7778,21 @@
       <c r="O56" s="45"/>
       <c r="P56" s="45"/>
       <c r="Q56" s="45" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="R56" s="45" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S56" s="45" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="T56" s="45" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="U56" s="45"/>
       <c r="V56" s="45"/>
       <c r="W56" s="45" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="X56" s="45"/>
       <c r="Y56" s="45"/>
@@ -7802,181 +7802,181 @@
     </row>
     <row r="57" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A57" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B57" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="C57" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="C57" s="41" t="s">
+      <c r="D57" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="D57" s="50" t="s">
+      <c r="E57" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="E57" s="56" t="s">
+      <c r="F57" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="G57" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="H57" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="I57" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="J57" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="F57" s="44" t="s">
+      <c r="K57" s="45" t="s">
         <v>160</v>
-      </c>
-      <c r="G57" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="H57" s="45" t="s">
-        <v>160</v>
-      </c>
-      <c r="I57" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="J57" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="K57" s="45" t="s">
-        <v>161</v>
       </c>
       <c r="L57" s="45"/>
       <c r="M57" s="7"/>
       <c r="N57" s="45"/>
       <c r="O57" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="P57" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="P57" s="22" t="s">
-        <v>161</v>
-      </c>
       <c r="Q57" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="R57" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="S57" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="R57" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="S57" s="45" t="s">
+      <c r="T57" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="U57" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="V57" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="W57" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="X57" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y57" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="T57" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="U57" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="V57" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="W57" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="X57" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y57" s="45" t="s">
-        <v>166</v>
-      </c>
       <c r="Z57" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AA57" s="22"/>
       <c r="AB57" s="22"/>
       <c r="AC57" s="96" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="58" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A58" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B58" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="C58" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C58" s="41" t="s">
+      <c r="D58" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="E58" s="56" t="s">
         <v>168</v>
       </c>
-      <c r="D58" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="E58" s="56" t="s">
+      <c r="F58" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="G58" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="H58" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="I58" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="J58" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="F58" s="44" t="s">
-        <v>168</v>
-      </c>
-      <c r="G58" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="H58" s="45" t="s">
-        <v>168</v>
-      </c>
-      <c r="I58" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="J58" s="45" t="s">
-        <v>170</v>
-      </c>
       <c r="K58" s="45" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L58" s="45"/>
       <c r="M58" s="7"/>
       <c r="N58" s="45"/>
       <c r="O58" s="45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P58" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q58" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="R58" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="S58" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="R58" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="S58" s="45" t="s">
+      <c r="T58" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="U58" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="V58" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="W58" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="X58" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y58" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="T58" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="U58" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="V58" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="W58" s="45" t="s">
-        <v>172</v>
-      </c>
-      <c r="X58" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y58" s="45" t="s">
-        <v>173</v>
-      </c>
       <c r="Z58" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AA58" s="22"/>
       <c r="AB58" s="22"/>
       <c r="AC58" s="96" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="59" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B59" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="C59" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="C59" s="41" t="s">
+      <c r="D59" s="50" t="s">
         <v>175</v>
-      </c>
-      <c r="D59" s="50" t="s">
-        <v>176</v>
       </c>
       <c r="E59" s="56"/>
       <c r="F59" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="G59" s="45" t="s">
         <v>175</v>
-      </c>
-      <c r="G59" s="45" t="s">
-        <v>176</v>
       </c>
       <c r="H59" s="45"/>
       <c r="I59" s="45"/>
@@ -7992,10 +7992,10 @@
       <c r="S59" s="45"/>
       <c r="T59" s="22"/>
       <c r="U59" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V59" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="W59" s="45"/>
       <c r="X59" s="22"/>
@@ -8006,31 +8006,31 @@
     </row>
     <row r="60" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A60" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B60" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="C60" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="C60" s="41" t="s">
+      <c r="D60" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="E60" s="56" t="s">
         <v>179</v>
       </c>
-      <c r="D60" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="E60" s="56" t="s">
-        <v>180</v>
-      </c>
       <c r="F60" s="44" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G60" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H60" s="45" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I60" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J60" s="45"/>
       <c r="K60" s="45"/>
@@ -8038,52 +8038,52 @@
       <c r="M60" s="7"/>
       <c r="N60" s="45"/>
       <c r="O60" s="45" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P60" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q60" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="R60" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="S60" s="45" t="s">
         <v>181</v>
       </c>
-      <c r="R60" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="S60" s="45" t="s">
-        <v>182</v>
-      </c>
       <c r="T60" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="U60" s="45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V60" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="W60" s="45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="X60" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Y60" s="45"/>
       <c r="Z60" s="45"/>
       <c r="AA60" s="45"/>
       <c r="AB60" s="45"/>
       <c r="AC60" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="61" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B61" s="40" t="s">
+        <v>916</v>
+      </c>
+      <c r="C61" s="41" t="s">
         <v>917</v>
-      </c>
-      <c r="C61" s="41" t="s">
-        <v>918</v>
       </c>
       <c r="D61" s="50"/>
       <c r="E61" s="56"/>
@@ -8099,11 +8099,11 @@
       <c r="O61" s="45"/>
       <c r="P61" s="22"/>
       <c r="Q61" s="45" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="R61" s="22"/>
       <c r="S61" s="45" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="T61" s="22"/>
       <c r="U61" s="45"/>
@@ -8117,44 +8117,44 @@
     </row>
     <row r="62" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B62" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="C62" s="41" t="s">
         <v>183</v>
-      </c>
-      <c r="C62" s="41" t="s">
-        <v>184</v>
       </c>
       <c r="D62" s="42"/>
       <c r="E62" s="43"/>
       <c r="F62" s="44"/>
       <c r="G62" s="45"/>
       <c r="H62" s="45" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I62" s="45"/>
       <c r="J62" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="K62" s="45" t="s">
         <v>186</v>
-      </c>
-      <c r="K62" s="45" t="s">
-        <v>187</v>
       </c>
       <c r="L62" s="45"/>
       <c r="M62" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N62" s="45"/>
       <c r="O62" s="45" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P62" s="45"/>
       <c r="Q62" s="45"/>
       <c r="R62" s="45"/>
       <c r="S62" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="T62" s="45" t="s">
         <v>189</v>
-      </c>
-      <c r="T62" s="45" t="s">
-        <v>190</v>
       </c>
       <c r="U62" s="45"/>
       <c r="V62" s="45"/>
@@ -8163,57 +8163,57 @@
       <c r="Y62" s="45"/>
       <c r="Z62" s="45"/>
       <c r="AA62" s="45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AB62" s="45"/>
     </row>
     <row r="63" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B63" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="C63" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="C63" s="41" t="s">
+      <c r="D63" s="42" t="s">
         <v>193</v>
-      </c>
-      <c r="D63" s="42" t="s">
-        <v>194</v>
       </c>
       <c r="E63" s="43"/>
       <c r="F63" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="G63" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="G63" s="22" t="s">
+      <c r="H63" s="45" t="s">
         <v>196</v>
       </c>
-      <c r="H63" s="45" t="s">
-        <v>197</v>
-      </c>
       <c r="I63" s="45" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J63" s="45"/>
       <c r="K63" s="45"/>
       <c r="L63" s="45"/>
       <c r="M63" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N63" s="45" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O63" s="45" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P63" s="45" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q63" s="45" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="R63" s="45"/>
       <c r="S63" s="45" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="T63" s="45"/>
       <c r="U63" s="45"/>
@@ -8225,91 +8225,91 @@
       <c r="AA63" s="45"/>
       <c r="AB63" s="45"/>
       <c r="AC63" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="64" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B64" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="C64" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="C64" s="41" t="s">
-        <v>200</v>
-      </c>
       <c r="D64" s="42" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E64" s="43"/>
       <c r="F64" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="G64" s="45" t="s">
         <v>200</v>
       </c>
-      <c r="G64" s="45" t="s">
+      <c r="H64" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="I64" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="J64" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="H64" s="45" t="s">
+      <c r="K64" s="45" t="s">
         <v>200</v>
-      </c>
-      <c r="I64" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="J64" s="45" t="s">
-        <v>202</v>
-      </c>
-      <c r="K64" s="45" t="s">
-        <v>201</v>
       </c>
       <c r="L64" s="45"/>
       <c r="M64" s="7"/>
       <c r="N64" s="45"/>
       <c r="O64" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="P64" s="45" t="s">
         <v>200</v>
       </c>
-      <c r="P64" s="45" t="s">
-        <v>201</v>
-      </c>
       <c r="Q64" s="45" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="R64" s="45" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="S64" s="45" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T64" s="45" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="U64" s="45"/>
       <c r="V64" s="45" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="W64" s="45"/>
       <c r="X64" s="45" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Y64" s="45" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Z64" s="45" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AA64" s="45"/>
       <c r="AB64" s="45"/>
     </row>
     <row r="65" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="57" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B65" s="58" t="s">
+        <v>203</v>
+      </c>
+      <c r="C65" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="C65" s="59" t="s">
-        <v>205</v>
-      </c>
       <c r="D65" s="60" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E65" s="43"/>
       <c r="F65" s="44"/>
@@ -8317,189 +8317,189 @@
       <c r="H65" s="45"/>
       <c r="I65" s="45"/>
       <c r="J65" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="K65" s="45" t="s">
         <v>206</v>
-      </c>
-      <c r="K65" s="45" t="s">
-        <v>207</v>
       </c>
       <c r="L65" s="45"/>
       <c r="M65" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="N65" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="O65" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="P65" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q65" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="R65" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="S65" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="T65" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="U65" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="V65" s="61" t="s">
+        <v>207</v>
+      </c>
+      <c r="W65" s="61" t="s">
+        <v>208</v>
+      </c>
+      <c r="X65" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y65" s="61" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z65" s="61" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA65" s="61" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB65" s="61" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC65" s="97" t="s">
         <v>205</v>
-      </c>
-      <c r="N65" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="O65" s="45" t="s">
-        <v>205</v>
-      </c>
-      <c r="P65" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q65" s="45" t="s">
-        <v>205</v>
-      </c>
-      <c r="R65" s="45" t="s">
-        <v>208</v>
-      </c>
-      <c r="S65" s="45" t="s">
-        <v>205</v>
-      </c>
-      <c r="T65" s="45" t="s">
-        <v>208</v>
-      </c>
-      <c r="U65" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="V65" s="61" t="s">
-        <v>208</v>
-      </c>
-      <c r="W65" s="61" t="s">
-        <v>209</v>
-      </c>
-      <c r="X65" s="61" t="s">
-        <v>207</v>
-      </c>
-      <c r="Y65" s="61" t="s">
-        <v>205</v>
-      </c>
-      <c r="Z65" s="61" t="s">
-        <v>208</v>
-      </c>
-      <c r="AA65" s="61" t="s">
-        <v>158</v>
-      </c>
-      <c r="AB65" s="61" t="s">
-        <v>153</v>
-      </c>
-      <c r="AC65" s="97" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="66" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="57" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B66" s="58" t="s">
+        <v>209</v>
+      </c>
+      <c r="C66" s="41" t="s">
         <v>210</v>
       </c>
-      <c r="C66" s="41" t="s">
-        <v>211</v>
-      </c>
       <c r="D66" s="42" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E66" s="43"/>
       <c r="F66" s="44" t="s">
+        <v>210</v>
+      </c>
+      <c r="G66" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="H66" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="I66" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="J66" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="K66" s="45" t="s">
         <v>211</v>
-      </c>
-      <c r="G66" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="H66" s="45" t="s">
-        <v>211</v>
-      </c>
-      <c r="I66" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="J66" s="45" t="s">
-        <v>211</v>
-      </c>
-      <c r="K66" s="45" t="s">
-        <v>212</v>
       </c>
       <c r="L66" s="45"/>
       <c r="M66" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="N66" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="O66" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="P66" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q66" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="R66" s="45" t="s">
         <v>211</v>
       </c>
-      <c r="N66" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="O66" s="45" t="s">
+      <c r="S66" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="T66" s="45" t="s">
         <v>211</v>
       </c>
-      <c r="P66" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q66" s="45" t="s">
+      <c r="U66" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="V66" s="61" t="s">
         <v>211</v>
       </c>
-      <c r="R66" s="45" t="s">
-        <v>212</v>
-      </c>
-      <c r="S66" s="45" t="s">
+      <c r="W66" s="61" t="s">
+        <v>210</v>
+      </c>
+      <c r="X66" s="61" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y66" s="61" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z66" s="61" t="s">
         <v>211</v>
       </c>
-      <c r="T66" s="45" t="s">
-        <v>212</v>
-      </c>
-      <c r="U66" s="22" t="s">
+      <c r="AA66" s="61" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB66" s="45" t="s">
         <v>211</v>
       </c>
-      <c r="V66" s="61" t="s">
-        <v>212</v>
-      </c>
-      <c r="W66" s="61" t="s">
-        <v>211</v>
-      </c>
-      <c r="X66" s="61" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y66" s="61" t="s">
-        <v>211</v>
-      </c>
-      <c r="Z66" s="61" t="s">
-        <v>212</v>
-      </c>
-      <c r="AA66" s="61" t="s">
-        <v>211</v>
-      </c>
-      <c r="AB66" s="45" t="s">
-        <v>212</v>
-      </c>
       <c r="AC66" s="97" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A67" s="57" t="s">
+        <v>892</v>
+      </c>
+      <c r="B67" s="58" t="s">
+        <v>212</v>
+      </c>
+      <c r="C67" s="62" t="s">
+        <v>215</v>
+      </c>
+      <c r="D67" s="42" t="s">
         <v>893</v>
-      </c>
-      <c r="B67" s="58" t="s">
-        <v>213</v>
-      </c>
-      <c r="C67" s="62" t="s">
-        <v>216</v>
-      </c>
-      <c r="D67" s="42" t="s">
-        <v>894</v>
       </c>
       <c r="E67" s="43"/>
       <c r="F67" s="44" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G67" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="H67" s="45" t="s">
         <v>215</v>
       </c>
-      <c r="H67" s="45" t="s">
-        <v>216</v>
-      </c>
       <c r="I67" s="45" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J67" s="45"/>
       <c r="K67" s="45"/>
       <c r="L67" s="45"/>
       <c r="M67" s="45" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N67" s="45" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O67" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="P67" s="45" t="s">
         <v>214</v>
-      </c>
-      <c r="P67" s="45" t="s">
-        <v>215</v>
       </c>
       <c r="Q67" s="45"/>
       <c r="R67" s="45"/>
@@ -8508,33 +8508,33 @@
       <c r="U67" s="45"/>
       <c r="V67" s="63"/>
       <c r="W67" s="64" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X67" s="63"/>
       <c r="Y67" s="63"/>
       <c r="Z67" s="63"/>
       <c r="AA67" s="64" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AB67" s="45" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AC67" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="68" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="57" t="s">
+        <v>892</v>
+      </c>
+      <c r="B68" s="65" t="s">
+        <v>218</v>
+      </c>
+      <c r="C68" s="66" t="s">
+        <v>939</v>
+      </c>
+      <c r="D68" s="67" t="s">
         <v>893</v>
-      </c>
-      <c r="B68" s="65" t="s">
-        <v>219</v>
-      </c>
-      <c r="C68" s="66" t="s">
-        <v>940</v>
-      </c>
-      <c r="D68" s="67" t="s">
-        <v>894</v>
       </c>
       <c r="E68" s="43"/>
       <c r="F68" s="68"/>
@@ -8542,66 +8542,66 @@
       <c r="H68" s="69"/>
       <c r="I68" s="69"/>
       <c r="J68" s="69" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K68" s="69" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L68" s="69"/>
       <c r="M68" s="69"/>
       <c r="N68" s="69"/>
       <c r="O68" s="69" t="s">
+        <v>219</v>
+      </c>
+      <c r="P68" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q68" s="70" t="s">
+        <v>993</v>
+      </c>
+      <c r="R68" s="70" t="s">
+        <v>217</v>
+      </c>
+      <c r="S68" s="45" t="s">
         <v>220</v>
       </c>
-      <c r="P68" s="45" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q68" s="70" t="s">
-        <v>994</v>
-      </c>
-      <c r="R68" s="70" t="s">
-        <v>218</v>
-      </c>
-      <c r="S68" s="45" t="s">
-        <v>221</v>
-      </c>
       <c r="T68" s="45" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="U68" s="71" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="V68" s="45" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="W68" s="72"/>
       <c r="X68" s="45" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Y68" s="72" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z68" s="45" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AA68" s="72"/>
       <c r="AB68" s="72"/>
       <c r="AC68" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="69" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A69" s="57" t="s">
+        <v>892</v>
+      </c>
+      <c r="B69" s="65" t="s">
+        <v>221</v>
+      </c>
+      <c r="C69" s="66" t="s">
+        <v>940</v>
+      </c>
+      <c r="D69" s="67" t="s">
         <v>893</v>
-      </c>
-      <c r="B69" s="65" t="s">
-        <v>222</v>
-      </c>
-      <c r="C69" s="66" t="s">
-        <v>941</v>
-      </c>
-      <c r="D69" s="67" t="s">
-        <v>894</v>
       </c>
       <c r="E69" s="43"/>
       <c r="F69" s="68"/>
@@ -8614,71 +8614,71 @@
       <c r="M69" s="69"/>
       <c r="N69" s="69"/>
       <c r="O69" s="69" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P69" s="45" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q69" s="70"/>
       <c r="R69" s="70"/>
       <c r="S69" s="69"/>
       <c r="T69" s="72"/>
       <c r="U69" s="71" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="V69" s="45" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="W69" s="72"/>
       <c r="X69" s="45" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Y69" s="45"/>
       <c r="Z69" s="72"/>
       <c r="AA69" s="72"/>
       <c r="AB69" s="72"/>
       <c r="AC69" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="70" spans="1:29" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A70" s="57" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B70" s="65" t="s">
+        <v>223</v>
+      </c>
+      <c r="C70" s="73" t="s">
         <v>224</v>
       </c>
-      <c r="C70" s="73" t="s">
+      <c r="D70" s="74" t="s">
         <v>225</v>
-      </c>
-      <c r="D70" s="74" t="s">
-        <v>226</v>
       </c>
       <c r="E70" s="75"/>
       <c r="F70" s="68" t="s">
+        <v>224</v>
+      </c>
+      <c r="G70" s="76" t="s">
         <v>225</v>
       </c>
-      <c r="G70" s="76" t="s">
-        <v>226</v>
-      </c>
       <c r="H70" s="69" t="s">
+        <v>224</v>
+      </c>
+      <c r="I70" s="76" t="s">
         <v>225</v>
-      </c>
-      <c r="I70" s="76" t="s">
-        <v>226</v>
       </c>
       <c r="J70" s="69"/>
       <c r="K70" s="76"/>
       <c r="L70" s="69"/>
       <c r="M70" s="69" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N70" s="69"/>
       <c r="O70" s="69" t="s">
+        <v>224</v>
+      </c>
+      <c r="P70" s="76" t="s">
         <v>225</v>
-      </c>
-      <c r="P70" s="76" t="s">
-        <v>226</v>
       </c>
       <c r="Q70" s="69"/>
       <c r="R70" s="69"/>
@@ -8691,27 +8691,27 @@
       <c r="Y70" s="77"/>
       <c r="Z70" s="77"/>
       <c r="AA70" s="78" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AB70" s="27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AC70" s="2" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="71" spans="1:29" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A71" s="57" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B71" s="65" t="s">
+        <v>227</v>
+      </c>
+      <c r="C71" s="73" t="s">
         <v>228</v>
       </c>
-      <c r="C71" s="73" t="s">
-        <v>229</v>
-      </c>
       <c r="D71" s="74" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E71" s="75"/>
       <c r="F71" s="68"/>
@@ -8719,68 +8719,68 @@
       <c r="H71" s="69"/>
       <c r="I71" s="69"/>
       <c r="J71" s="69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K71" s="76" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L71" s="69"/>
       <c r="M71" s="69"/>
       <c r="N71" s="69"/>
       <c r="O71" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P71" s="76" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q71" s="69" t="s">
+        <v>230</v>
+      </c>
+      <c r="R71" s="69" t="s">
+        <v>225</v>
+      </c>
+      <c r="S71" s="69" t="s">
+        <v>230</v>
+      </c>
+      <c r="T71" s="69" t="s">
+        <v>225</v>
+      </c>
+      <c r="U71" s="71" t="s">
         <v>231</v>
       </c>
-      <c r="R71" s="69" t="s">
-        <v>226</v>
-      </c>
-      <c r="S71" s="69" t="s">
+      <c r="V71" s="69" t="s">
+        <v>225</v>
+      </c>
+      <c r="W71" s="78" t="s">
         <v>231</v>
       </c>
-      <c r="T71" s="69" t="s">
-        <v>226</v>
-      </c>
-      <c r="U71" s="71" t="s">
-        <v>232</v>
-      </c>
-      <c r="V71" s="69" t="s">
-        <v>226</v>
-      </c>
-      <c r="W71" s="78" t="s">
-        <v>232</v>
-      </c>
       <c r="X71" s="69" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Y71" s="27" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Z71" s="69" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AA71" s="79"/>
       <c r="AB71" s="79"/>
       <c r="AC71" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="72" spans="1:29" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A72" s="57" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B72" s="65" t="s">
+        <v>232</v>
+      </c>
+      <c r="C72" s="73" t="s">
         <v>233</v>
       </c>
-      <c r="C72" s="73" t="s">
-        <v>234</v>
-      </c>
       <c r="D72" s="74" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E72" s="75"/>
       <c r="F72" s="68"/>
@@ -8793,58 +8793,58 @@
       <c r="M72" s="69"/>
       <c r="N72" s="69"/>
       <c r="O72" s="69" t="s">
+        <v>233</v>
+      </c>
+      <c r="P72" s="76" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q72" s="69" t="s">
         <v>234</v>
       </c>
-      <c r="P72" s="76" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q72" s="69" t="s">
-        <v>235</v>
-      </c>
       <c r="R72" s="69" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="S72" s="69" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="T72" s="69" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="U72" s="71" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="V72" s="69" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="W72" s="78" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="X72" s="69" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Y72" s="79"/>
       <c r="Z72" s="79"/>
       <c r="AA72" s="79"/>
       <c r="AB72" s="79"/>
       <c r="AC72" s="98" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="73" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="57" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B73" s="65" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C73" s="73" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D73" s="67" t="s">
+        <v>236</v>
+      </c>
+      <c r="E73" s="80" t="s">
         <v>237</v>
-      </c>
-      <c r="E73" s="80" t="s">
-        <v>238</v>
       </c>
       <c r="F73" s="68"/>
       <c r="G73" s="72"/>
@@ -8873,54 +8873,54 @@
     </row>
     <row r="74" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A74" s="57" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B74" s="65" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C74" s="73" t="s">
+        <v>935</v>
+      </c>
+      <c r="D74" s="67" t="s">
+        <v>236</v>
+      </c>
+      <c r="E74" s="80" t="s">
         <v>936</v>
       </c>
-      <c r="D74" s="67" t="s">
-        <v>237</v>
-      </c>
-      <c r="E74" s="80" t="s">
-        <v>937</v>
-      </c>
       <c r="F74" s="68" t="s">
+        <v>235</v>
+      </c>
+      <c r="G74" s="72" t="s">
+        <v>238</v>
+      </c>
+      <c r="H74" s="69" t="s">
+        <v>235</v>
+      </c>
+      <c r="I74" s="69" t="s">
         <v>236</v>
-      </c>
-      <c r="G74" s="72" t="s">
-        <v>239</v>
-      </c>
-      <c r="H74" s="69" t="s">
-        <v>236</v>
-      </c>
-      <c r="I74" s="69" t="s">
-        <v>237</v>
       </c>
       <c r="J74" s="69"/>
       <c r="K74" s="69"/>
       <c r="L74" s="81"/>
       <c r="M74" s="69" t="s">
+        <v>235</v>
+      </c>
+      <c r="N74" s="69" t="s">
         <v>236</v>
       </c>
-      <c r="N74" s="69" t="s">
-        <v>237</v>
-      </c>
       <c r="O74" s="69" t="s">
+        <v>235</v>
+      </c>
+      <c r="P74" s="69" t="s">
         <v>236</v>
-      </c>
-      <c r="P74" s="69" t="s">
-        <v>237</v>
       </c>
       <c r="Q74" s="69"/>
       <c r="R74" s="69"/>
       <c r="S74" s="69" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="T74" s="69" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="U74" s="69"/>
       <c r="V74" s="72"/>
@@ -8934,19 +8934,19 @@
     </row>
     <row r="75" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="57" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B75" s="40" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C75" s="73" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D75" s="67" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E75" s="80" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F75" s="44"/>
       <c r="G75" s="45"/>
@@ -8958,10 +8958,10 @@
       <c r="M75" s="45"/>
       <c r="N75" s="45"/>
       <c r="O75" s="45" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P75" s="69" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q75" s="45"/>
       <c r="R75" s="45"/>
@@ -8979,19 +8979,19 @@
     </row>
     <row r="76" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="57" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B76" s="65" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C76" s="73" t="s">
+        <v>921</v>
+      </c>
+      <c r="D76" s="67" t="s">
+        <v>238</v>
+      </c>
+      <c r="E76" s="80" t="s">
         <v>922</v>
-      </c>
-      <c r="D76" s="67" t="s">
-        <v>239</v>
-      </c>
-      <c r="E76" s="80" t="s">
-        <v>923</v>
       </c>
       <c r="F76" s="68"/>
       <c r="G76" s="72"/>
@@ -9020,54 +9020,54 @@
     </row>
     <row r="77" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A77" s="57" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B77" s="65" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C77" s="73" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D77" s="67" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E77" s="80" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F77" s="68" t="s">
+        <v>235</v>
+      </c>
+      <c r="G77" s="72" t="s">
+        <v>238</v>
+      </c>
+      <c r="H77" s="69" t="s">
+        <v>235</v>
+      </c>
+      <c r="I77" s="69" t="s">
         <v>236</v>
-      </c>
-      <c r="G77" s="72" t="s">
-        <v>239</v>
-      </c>
-      <c r="H77" s="69" t="s">
-        <v>236</v>
-      </c>
-      <c r="I77" s="69" t="s">
-        <v>237</v>
       </c>
       <c r="J77" s="69"/>
       <c r="K77" s="69"/>
       <c r="L77" s="81"/>
       <c r="M77" s="69" t="s">
+        <v>235</v>
+      </c>
+      <c r="N77" s="69" t="s">
         <v>236</v>
       </c>
-      <c r="N77" s="69" t="s">
-        <v>237</v>
-      </c>
       <c r="O77" s="69" t="s">
+        <v>235</v>
+      </c>
+      <c r="P77" s="69" t="s">
         <v>236</v>
-      </c>
-      <c r="P77" s="69" t="s">
-        <v>237</v>
       </c>
       <c r="Q77" s="69"/>
       <c r="R77" s="69"/>
       <c r="S77" s="69" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="T77" s="69" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="U77" s="69"/>
       <c r="V77" s="72"/>
@@ -9081,68 +9081,68 @@
     </row>
     <row r="78" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="92" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B78" s="93" t="s">
+        <v>239</v>
+      </c>
+      <c r="C78" s="94" t="s">
         <v>240</v>
       </c>
-      <c r="C78" s="94" t="s">
-        <v>241</v>
-      </c>
       <c r="D78" s="67" t="s">
+        <v>236</v>
+      </c>
+      <c r="E78" s="80" t="s">
         <v>237</v>
-      </c>
-      <c r="E78" s="80" t="s">
-        <v>238</v>
       </c>
       <c r="F78" s="44"/>
       <c r="G78" s="45"/>
       <c r="H78" s="45"/>
       <c r="I78" s="45"/>
       <c r="J78" s="69" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K78" s="69" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L78" s="45"/>
       <c r="M78" s="45"/>
       <c r="N78" s="45"/>
       <c r="O78" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="P78" s="69" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q78" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="P78" s="69" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q78" s="45" t="s">
+      <c r="R78" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="S78" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="T78" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="U78" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="V78" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="R78" s="45" t="s">
-        <v>237</v>
-      </c>
-      <c r="S78" s="45" t="s">
+      <c r="W78" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="X78" s="45" t="s">
         <v>236</v>
       </c>
-      <c r="T78" s="45" t="s">
-        <v>237</v>
-      </c>
-      <c r="U78" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="V78" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="W78" s="45" t="s">
+      <c r="Y78" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="Z78" s="45" t="s">
         <v>236</v>
-      </c>
-      <c r="X78" s="45" t="s">
-        <v>237</v>
-      </c>
-      <c r="Y78" s="45" t="s">
-        <v>236</v>
-      </c>
-      <c r="Z78" s="45" t="s">
-        <v>237</v>
       </c>
       <c r="AA78" s="45"/>
       <c r="AB78" s="45"/>
@@ -9150,19 +9150,19 @@
     </row>
     <row r="79" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="57" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B79" s="40" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C79" s="73" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D79" s="67" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E79" s="80" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F79" s="44"/>
       <c r="G79" s="45"/>
@@ -9174,10 +9174,10 @@
       <c r="M79" s="45"/>
       <c r="N79" s="45"/>
       <c r="O79" s="45" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P79" s="69" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q79" s="45"/>
       <c r="R79" s="45"/>
@@ -9195,44 +9195,44 @@
     </row>
     <row r="80" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="57" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B80" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="C80" s="41" t="s">
         <v>246</v>
       </c>
-      <c r="C80" s="41" t="s">
+      <c r="D80" s="42" t="s">
         <v>247</v>
-      </c>
-      <c r="D80" s="42" t="s">
-        <v>248</v>
       </c>
       <c r="E80" s="82"/>
       <c r="F80" s="44" t="s">
+        <v>246</v>
+      </c>
+      <c r="G80" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="G80" s="45" t="s">
-        <v>248</v>
-      </c>
       <c r="H80" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="I80" s="45" t="s">
         <v>247</v>
-      </c>
-      <c r="I80" s="45" t="s">
-        <v>248</v>
       </c>
       <c r="J80" s="45"/>
       <c r="K80" s="45"/>
       <c r="L80" s="45"/>
       <c r="M80" s="45" t="s">
+        <v>248</v>
+      </c>
+      <c r="N80" s="45" t="s">
         <v>249</v>
       </c>
-      <c r="N80" s="45" t="s">
-        <v>250</v>
-      </c>
       <c r="O80" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="P80" s="69" t="s">
         <v>247</v>
-      </c>
-      <c r="P80" s="69" t="s">
-        <v>248</v>
       </c>
       <c r="Q80" s="45"/>
       <c r="R80" s="45"/>
@@ -9245,25 +9245,25 @@
       <c r="Y80" s="45"/>
       <c r="Z80" s="45"/>
       <c r="AA80" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="AB80" s="45" t="s">
         <v>247</v>
-      </c>
-      <c r="AB80" s="45" t="s">
-        <v>248</v>
       </c>
       <c r="AC80" s="29"/>
     </row>
     <row r="81" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="57" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B81" s="40" t="s">
+        <v>250</v>
+      </c>
+      <c r="C81" s="41" t="s">
         <v>251</v>
       </c>
-      <c r="C81" s="41" t="s">
-        <v>252</v>
-      </c>
       <c r="D81" s="42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E81" s="43"/>
       <c r="F81" s="44"/>
@@ -9271,19 +9271,19 @@
       <c r="H81" s="45"/>
       <c r="I81" s="45"/>
       <c r="J81" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="K81" s="45" t="s">
         <v>247</v>
-      </c>
-      <c r="K81" s="45" t="s">
-        <v>248</v>
       </c>
       <c r="L81" s="45"/>
       <c r="M81" s="45"/>
       <c r="N81" s="45"/>
       <c r="O81" s="45" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P81" s="69" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Q81" s="45"/>
       <c r="R81" s="45"/>
@@ -9300,16 +9300,16 @@
     </row>
     <row r="82" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="57" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B82" s="40" t="s">
+        <v>253</v>
+      </c>
+      <c r="C82" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="C82" s="41" t="s">
-        <v>255</v>
-      </c>
       <c r="D82" s="42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E82" s="43"/>
       <c r="F82" s="44"/>
@@ -9322,10 +9322,10 @@
       <c r="M82" s="45"/>
       <c r="N82" s="45"/>
       <c r="O82" s="45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P82" s="69" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Q82" s="45"/>
       <c r="R82" s="45"/>
@@ -9342,31 +9342,31 @@
     </row>
     <row r="83" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="83" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B83" s="84" t="s">
+        <v>256</v>
+      </c>
+      <c r="C83" s="85" t="s">
         <v>257</v>
       </c>
-      <c r="C83" s="85" t="s">
+      <c r="D83" s="86" t="s">
         <v>258</v>
-      </c>
-      <c r="D83" s="86" t="s">
-        <v>259</v>
       </c>
       <c r="E83" s="87"/>
       <c r="F83" s="44" t="s">
+        <v>257</v>
+      </c>
+      <c r="G83" s="45" t="s">
         <v>258</v>
-      </c>
-      <c r="G83" s="45" t="s">
-        <v>259</v>
       </c>
       <c r="H83" s="45"/>
       <c r="I83" s="45"/>
       <c r="J83" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="K83" s="45" t="s">
         <v>258</v>
-      </c>
-      <c r="K83" s="45" t="s">
-        <v>259</v>
       </c>
       <c r="L83" s="45"/>
       <c r="M83" s="45"/>
@@ -9388,44 +9388,44 @@
     </row>
     <row r="84" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="90" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B84" s="91" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C84" s="91" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="AC84" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="85" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="90" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B85" s="89" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C85" s="89" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="AC85" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="86" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="90" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B86" s="89" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C86" s="89" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="AC86" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
   </sheetData>
@@ -9453,1286 +9453,1286 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>262</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="C2" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="8" t="s">
         <v>266</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="C3" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>270</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="C4" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>274</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="C5" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>278</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="C6" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>282</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="C7" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>286</v>
-      </c>
       <c r="D7" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="C8" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>289</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="C9" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>293</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="C10" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>297</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="C11" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>301</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="C12" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>305</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="C13" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>309</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="C14" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>313</v>
-      </c>
       <c r="D14" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="C15" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>316</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="C16" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>320</v>
-      </c>
       <c r="D16" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="C17" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>323</v>
-      </c>
       <c r="D17" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="B18" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="C18" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="D18" s="8" t="s">
         <v>326</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="C19" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>330</v>
-      </c>
       <c r="D19" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B20" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="C20" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>333</v>
-      </c>
       <c r="D20" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="B21" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="C21" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="D21" s="8" t="s">
         <v>336</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="B22" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="C22" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="D22" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="B23" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="C23" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>344</v>
-      </c>
       <c r="D23" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="B24" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="C24" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="D24" s="8" t="s">
         <v>347</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="B25" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="C25" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>351</v>
-      </c>
       <c r="D25" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="B26" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="C26" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>354</v>
-      </c>
       <c r="D26" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="B27" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="C27" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="D27" s="8" t="s">
         <v>357</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="B28" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="C28" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>361</v>
-      </c>
       <c r="D28" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="B29" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="C29" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="D29" s="8" t="s">
         <v>364</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="B30" s="16" t="s">
         <v>366</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="C30" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>368</v>
-      </c>
       <c r="D30" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="B31" s="16" t="s">
         <v>369</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="C31" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>371</v>
-      </c>
       <c r="D31" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="B32" s="16" t="s">
         <v>372</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="C32" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="D32" s="8" t="s">
         <v>374</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="B33" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="C33" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="C33" s="12" t="s">
-        <v>378</v>
-      </c>
       <c r="D33" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B34" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="C34" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="D34" s="8" t="s">
         <v>381</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="B35" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="C35" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>385</v>
-      </c>
       <c r="D35" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="B36" s="16" t="s">
         <v>386</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="C36" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="D36" s="8" t="s">
         <v>388</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="B37" s="16" t="s">
         <v>390</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="C37" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="D37" s="8" t="s">
         <v>392</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="B38" s="16" t="s">
         <v>394</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="C38" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="C38" s="9" t="s">
-        <v>396</v>
-      </c>
       <c r="D38" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="B39" s="16" t="s">
         <v>397</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="C39" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="C39" s="9" t="s">
-        <v>399</v>
-      </c>
       <c r="D39" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="B40" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="C40" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="C40" s="9" t="s">
-        <v>402</v>
-      </c>
       <c r="D40" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="B41" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="C41" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="C41" s="9" t="s">
-        <v>405</v>
-      </c>
       <c r="D41" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B42" s="16" t="s">
         <v>406</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="C42" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="C42" s="9" t="s">
-        <v>408</v>
-      </c>
       <c r="D42" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="B43" s="16" t="s">
         <v>409</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="C43" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="C43" s="9" t="s">
-        <v>411</v>
-      </c>
       <c r="D43" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="B44" s="16" t="s">
         <v>412</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="C44" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="C44" s="9" t="s">
-        <v>414</v>
-      </c>
       <c r="D44" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="B45" s="16" t="s">
         <v>415</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="C45" s="11" t="s">
         <v>416</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="D45" s="8" t="s">
         <v>417</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="B46" s="16" t="s">
         <v>419</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="C46" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="C46" s="9" t="s">
-        <v>421</v>
-      </c>
       <c r="D46" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="B47" s="16" t="s">
         <v>422</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="C47" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="D47" s="8" t="s">
         <v>424</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="B48" s="16" t="s">
         <v>426</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="C48" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="C48" s="9" t="s">
-        <v>428</v>
-      </c>
       <c r="D48" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="B49" s="16" t="s">
         <v>429</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="C49" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="C49" s="9" t="s">
-        <v>431</v>
-      </c>
       <c r="D49" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="B50" s="16" t="s">
         <v>432</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="C50" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="C50" s="9" t="s">
-        <v>434</v>
-      </c>
       <c r="D50" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="B51" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="C51" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="C51" s="9" t="s">
-        <v>437</v>
-      </c>
       <c r="D51" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="B52" s="16" t="s">
         <v>438</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="C52" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="C52" s="9" t="s">
-        <v>440</v>
-      </c>
       <c r="D52" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="B53" s="16" t="s">
         <v>441</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="C53" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="C53" s="9" t="s">
-        <v>443</v>
-      </c>
       <c r="D53" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="B54" s="16" t="s">
         <v>444</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="C54" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="C54" s="11" t="s">
-        <v>446</v>
-      </c>
       <c r="D54" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="B55" s="16" t="s">
         <v>447</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="C55" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="C55" s="11" t="s">
-        <v>449</v>
-      </c>
       <c r="D55" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="B56" s="16" t="s">
         <v>450</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="C56" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="C56" s="9" t="s">
-        <v>452</v>
-      </c>
       <c r="D56" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="B57" s="16" t="s">
         <v>453</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="C57" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="C57" s="9" t="s">
-        <v>455</v>
-      </c>
       <c r="D57" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="B58" s="16" t="s">
         <v>456</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="C58" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="D58" s="8" t="s">
         <v>458</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="B59" s="16" t="s">
         <v>460</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="C59" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="C59" s="9" t="s">
-        <v>462</v>
-      </c>
       <c r="D59" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="B60" s="16" t="s">
         <v>463</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="C60" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="C60" s="11" t="s">
-        <v>465</v>
-      </c>
       <c r="D60" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="B61" s="16" t="s">
         <v>466</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="C61" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="D61" s="8" t="s">
         <v>468</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="B62" s="16" t="s">
         <v>470</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="C62" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="C62" s="9" t="s">
-        <v>472</v>
-      </c>
       <c r="D62" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="B63" s="16" t="s">
         <v>473</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="C63" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="C63" s="9" t="s">
-        <v>475</v>
-      </c>
       <c r="D63" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="B64" s="16" t="s">
         <v>476</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="C64" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="C64" s="9" t="s">
-        <v>478</v>
-      </c>
       <c r="D64" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="B65" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="C65" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="C65" s="9" t="s">
-        <v>481</v>
-      </c>
       <c r="D65" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="B66" s="16" t="s">
         <v>482</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="C66" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="C66" s="9" t="s">
-        <v>484</v>
-      </c>
       <c r="D66" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="B67" s="16" t="s">
         <v>485</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="C67" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="D67" s="8" t="s">
         <v>487</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="B68" s="16" t="s">
         <v>489</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="C68" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="C68" s="9" t="s">
-        <v>491</v>
-      </c>
       <c r="D68" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="B69" s="16" t="s">
         <v>492</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="C69" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="D69" s="8" t="s">
         <v>494</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="B70" s="16" t="s">
         <v>496</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="C70" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="C70" s="11" t="s">
-        <v>498</v>
-      </c>
       <c r="D70" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B71" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="C71" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="D71" s="8" t="s">
         <v>500</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="B72" s="16" t="s">
         <v>502</v>
       </c>
-      <c r="B72" s="16" t="s">
+      <c r="C72" s="12" t="s">
         <v>503</v>
       </c>
-      <c r="C72" s="12" t="s">
-        <v>504</v>
-      </c>
       <c r="D72" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="B73" s="16" t="s">
         <v>505</v>
       </c>
-      <c r="B73" s="16" t="s">
+      <c r="C73" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="C73" s="9" t="s">
-        <v>507</v>
-      </c>
       <c r="D73" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="B74" s="16" t="s">
         <v>508</v>
       </c>
-      <c r="B74" s="16" t="s">
+      <c r="C74" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="C74" s="9" t="s">
-        <v>510</v>
-      </c>
       <c r="D74" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="B75" s="16" t="s">
         <v>511</v>
       </c>
-      <c r="B75" s="16" t="s">
+      <c r="C75" s="9" t="s">
         <v>512</v>
       </c>
-      <c r="C75" s="9" t="s">
-        <v>513</v>
-      </c>
       <c r="D75" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="B76" s="16" t="s">
         <v>514</v>
       </c>
-      <c r="B76" s="16" t="s">
+      <c r="C76" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="C76" s="9" t="s">
-        <v>516</v>
-      </c>
       <c r="D76" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="B77" s="16" t="s">
         <v>517</v>
       </c>
-      <c r="B77" s="16" t="s">
+      <c r="C77" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="C77" s="9" t="s">
-        <v>519</v>
-      </c>
       <c r="D77" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="B78" s="16" t="s">
         <v>520</v>
       </c>
-      <c r="B78" s="16" t="s">
+      <c r="C78" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="C78" s="9" t="s">
-        <v>522</v>
-      </c>
       <c r="D78" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="16" t="s">
+        <v>522</v>
+      </c>
+      <c r="B79" s="16" t="s">
         <v>523</v>
       </c>
-      <c r="B79" s="16" t="s">
+      <c r="C79" s="11" t="s">
         <v>524</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="D79" s="8" t="s">
         <v>525</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="B80" s="16" t="s">
         <v>527</v>
       </c>
-      <c r="B80" s="16" t="s">
+      <c r="C80" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="D80" s="8" t="s">
         <v>529</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="B81" s="16" t="s">
         <v>531</v>
       </c>
-      <c r="B81" s="16" t="s">
+      <c r="C81" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="C81" s="9" t="s">
-        <v>533</v>
-      </c>
       <c r="D81" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="B82" s="16" t="s">
         <v>534</v>
-      </c>
-      <c r="B82" s="16" t="s">
-        <v>535</v>
       </c>
       <c r="C82" s="16"/>
       <c r="D82" s="8"/>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="B83" s="16" t="s">
         <v>536</v>
       </c>
-      <c r="B83" s="16" t="s">
+      <c r="C83" s="11" t="s">
         <v>537</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="D83" s="8" t="s">
         <v>538</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="B84" s="16" t="s">
         <v>540</v>
       </c>
-      <c r="B84" s="16" t="s">
+      <c r="C84" s="9" t="s">
         <v>541</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="D84" s="8" t="s">
         <v>542</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="B85" s="16" t="s">
         <v>544</v>
       </c>
-      <c r="B85" s="16" t="s">
+      <c r="C85" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="D85" s="8" t="s">
         <v>546</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="B86" s="16" t="s">
         <v>548</v>
       </c>
-      <c r="B86" s="16" t="s">
+      <c r="C86" s="9" t="s">
         <v>549</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="D86" s="8" t="s">
         <v>550</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="B87" s="16" t="s">
         <v>552</v>
       </c>
-      <c r="B87" s="16" t="s">
+      <c r="C87" s="11" t="s">
         <v>553</v>
       </c>
-      <c r="C87" s="11" t="s">
-        <v>554</v>
-      </c>
       <c r="D87" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="B88" s="16" t="s">
         <v>555</v>
       </c>
-      <c r="B88" s="16" t="s">
+      <c r="C88" s="9" t="s">
         <v>556</v>
       </c>
-      <c r="C88" s="9" t="s">
+      <c r="D88" s="8" t="s">
         <v>557</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="B89" s="16" t="s">
         <v>559</v>
       </c>
-      <c r="B89" s="16" t="s">
+      <c r="C89" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="C89" s="9" t="s">
+      <c r="D89" s="8" t="s">
         <v>561</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="B90" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="B90" s="16" t="s">
+      <c r="C90" s="9" t="s">
         <v>564</v>
       </c>
-      <c r="C90" s="9" t="s">
-        <v>565</v>
-      </c>
       <c r="D90" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="B91" s="16" t="s">
         <v>566</v>
       </c>
-      <c r="B91" s="16" t="s">
+      <c r="C91" s="9" t="s">
         <v>567</v>
       </c>
-      <c r="C91" s="9" t="s">
+      <c r="D91" s="8" t="s">
         <v>568</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="92" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="B92" s="16" t="s">
         <v>570</v>
       </c>
-      <c r="B92" s="16" t="s">
+      <c r="C92" s="9" t="s">
         <v>571</v>
       </c>
-      <c r="C92" s="9" t="s">
-        <v>572</v>
-      </c>
       <c r="D92" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E92" s="88"/>
       <c r="F92" s="88"/>
@@ -10750,1400 +10750,1400 @@
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="B93" s="16" t="s">
         <v>573</v>
       </c>
-      <c r="B93" s="16" t="s">
+      <c r="C93" s="12" t="s">
         <v>574</v>
       </c>
-      <c r="C93" s="12" t="s">
-        <v>575</v>
-      </c>
       <c r="D93" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="B94" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="B94" s="16" t="s">
+      <c r="C94" s="9" t="s">
         <v>577</v>
       </c>
-      <c r="C94" s="9" t="s">
+      <c r="D94" s="8" t="s">
         <v>578</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="B95" s="16" t="s">
         <v>580</v>
       </c>
-      <c r="B95" s="16" t="s">
+      <c r="C95" s="9" t="s">
         <v>581</v>
       </c>
-      <c r="C95" s="9" t="s">
+      <c r="D95" s="8" t="s">
         <v>582</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="B96" s="16" t="s">
         <v>584</v>
       </c>
-      <c r="B96" s="16" t="s">
+      <c r="C96" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="C96" s="9" t="s">
-        <v>586</v>
-      </c>
       <c r="D96" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="B97" s="16" t="s">
         <v>587</v>
       </c>
-      <c r="B97" s="16" t="s">
+      <c r="C97" s="9" t="s">
         <v>588</v>
       </c>
-      <c r="C97" s="9" t="s">
-        <v>589</v>
-      </c>
       <c r="D97" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="B98" s="16" t="s">
         <v>590</v>
       </c>
-      <c r="B98" s="16" t="s">
+      <c r="C98" s="9" t="s">
         <v>591</v>
       </c>
-      <c r="C98" s="9" t="s">
-        <v>592</v>
-      </c>
       <c r="D98" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="B99" s="16" t="s">
         <v>593</v>
       </c>
-      <c r="B99" s="16" t="s">
+      <c r="C99" s="9" t="s">
         <v>594</v>
       </c>
-      <c r="C99" s="9" t="s">
+      <c r="D99" s="8" t="s">
         <v>595</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="B100" s="16" t="s">
         <v>597</v>
       </c>
-      <c r="B100" s="16" t="s">
+      <c r="C100" s="9" t="s">
         <v>598</v>
       </c>
-      <c r="C100" s="9" t="s">
-        <v>599</v>
-      </c>
       <c r="D100" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="B101" s="16" t="s">
         <v>600</v>
       </c>
-      <c r="B101" s="16" t="s">
+      <c r="C101" s="10" t="s">
         <v>601</v>
       </c>
-      <c r="C101" s="10" t="s">
+      <c r="D101" s="8" t="s">
         <v>602</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="B102" s="16" t="s">
         <v>604</v>
       </c>
-      <c r="B102" s="16" t="s">
+      <c r="C102" s="9" t="s">
         <v>605</v>
       </c>
-      <c r="C102" s="9" t="s">
-        <v>606</v>
-      </c>
       <c r="D102" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="B103" s="16" t="s">
         <v>607</v>
       </c>
-      <c r="B103" s="16" t="s">
+      <c r="C103" s="11" t="s">
         <v>608</v>
       </c>
-      <c r="C103" s="11" t="s">
-        <v>609</v>
-      </c>
       <c r="D103" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="B104" s="16" t="s">
         <v>610</v>
       </c>
-      <c r="B104" s="16" t="s">
+      <c r="C104" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="C104" s="9" t="s">
+      <c r="D104" s="8" t="s">
         <v>612</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="B105" s="16" t="s">
         <v>614</v>
       </c>
-      <c r="B105" s="16" t="s">
+      <c r="C105" s="12" t="s">
         <v>615</v>
       </c>
-      <c r="C105" s="12" t="s">
-        <v>616</v>
-      </c>
       <c r="D105" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="B106" s="16" t="s">
         <v>617</v>
       </c>
-      <c r="B106" s="16" t="s">
+      <c r="C106" s="12" t="s">
         <v>618</v>
       </c>
-      <c r="C106" s="12" t="s">
-        <v>619</v>
-      </c>
       <c r="D106" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="16" t="s">
+        <v>619</v>
+      </c>
+      <c r="B107" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="B107" s="16" t="s">
+      <c r="C107" s="18" t="s">
         <v>621</v>
       </c>
-      <c r="C107" s="18" t="s">
+      <c r="D107" s="8" t="s">
         <v>622</v>
-      </c>
-      <c r="D107" s="8" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="16" t="s">
+        <v>623</v>
+      </c>
+      <c r="B108" s="16" t="s">
         <v>624</v>
       </c>
-      <c r="B108" s="16" t="s">
+      <c r="C108" s="17" t="s">
         <v>625</v>
       </c>
-      <c r="C108" s="17" t="s">
+      <c r="D108" s="7" t="s">
         <v>626</v>
-      </c>
-      <c r="D108" s="7" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="16" t="s">
+        <v>627</v>
+      </c>
+      <c r="B109" s="16" t="s">
         <v>628</v>
       </c>
-      <c r="B109" s="16" t="s">
+      <c r="C109" s="18" t="s">
         <v>629</v>
       </c>
-      <c r="C109" s="18" t="s">
-        <v>630</v>
-      </c>
       <c r="D109" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="B110" s="16" t="s">
         <v>631</v>
       </c>
-      <c r="B110" s="16" t="s">
+      <c r="C110" s="12" t="s">
         <v>632</v>
       </c>
-      <c r="C110" s="12" t="s">
-        <v>633</v>
-      </c>
       <c r="D110" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="16" t="s">
+        <v>633</v>
+      </c>
+      <c r="B111" s="16" t="s">
         <v>634</v>
       </c>
-      <c r="B111" s="16" t="s">
+      <c r="C111" s="12" t="s">
         <v>635</v>
       </c>
-      <c r="C111" s="12" t="s">
-        <v>636</v>
-      </c>
       <c r="D111" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="B112" s="16" t="s">
         <v>637</v>
       </c>
-      <c r="B112" s="16" t="s">
+      <c r="C112" s="19" t="s">
         <v>638</v>
       </c>
-      <c r="C112" s="19" t="s">
-        <v>639</v>
-      </c>
       <c r="D112" s="20" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="16" t="s">
+        <v>639</v>
+      </c>
+      <c r="B113" s="16" t="s">
         <v>640</v>
       </c>
-      <c r="B113" s="16" t="s">
+      <c r="C113" s="21" t="s">
         <v>641</v>
       </c>
-      <c r="C113" s="21" t="s">
-        <v>642</v>
-      </c>
       <c r="D113" s="8" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="B114" s="16" t="s">
         <v>643</v>
       </c>
-      <c r="B114" s="16" t="s">
+      <c r="C114" s="12" t="s">
         <v>644</v>
       </c>
-      <c r="C114" s="12" t="s">
-        <v>645</v>
-      </c>
       <c r="D114" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="16" t="s">
+        <v>645</v>
+      </c>
+      <c r="B115" s="16" t="s">
         <v>646</v>
       </c>
-      <c r="B115" s="16" t="s">
+      <c r="C115" s="19" t="s">
         <v>647</v>
       </c>
-      <c r="C115" s="19" t="s">
-        <v>648</v>
-      </c>
       <c r="D115" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="B116" s="16" t="s">
         <v>649</v>
       </c>
-      <c r="B116" s="16" t="s">
+      <c r="C116" s="9" t="s">
         <v>650</v>
       </c>
-      <c r="C116" s="9" t="s">
-        <v>651</v>
-      </c>
       <c r="D116" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="16" t="s">
+        <v>651</v>
+      </c>
+      <c r="B117" s="16" t="s">
         <v>652</v>
       </c>
-      <c r="B117" s="16" t="s">
+      <c r="C117" s="11" t="s">
         <v>653</v>
       </c>
-      <c r="C117" s="11" t="s">
-        <v>654</v>
-      </c>
       <c r="D117" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="B118" s="16" t="s">
         <v>655</v>
       </c>
-      <c r="B118" s="16" t="s">
+      <c r="C118" s="9" t="s">
         <v>656</v>
       </c>
-      <c r="C118" s="9" t="s">
-        <v>657</v>
-      </c>
       <c r="D118" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="B119" s="16" t="s">
         <v>658</v>
       </c>
-      <c r="B119" s="16" t="s">
+      <c r="C119" s="11" t="s">
         <v>659</v>
       </c>
-      <c r="C119" s="11" t="s">
-        <v>660</v>
-      </c>
       <c r="D119" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="16" t="s">
+        <v>660</v>
+      </c>
+      <c r="B120" s="16" t="s">
         <v>661</v>
       </c>
-      <c r="B120" s="16" t="s">
+      <c r="C120" s="11" t="s">
         <v>662</v>
       </c>
-      <c r="C120" s="11" t="s">
-        <v>663</v>
-      </c>
       <c r="D120" s="20" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
+        <v>663</v>
+      </c>
+      <c r="B121" s="16" t="s">
         <v>664</v>
       </c>
-      <c r="B121" s="16" t="s">
+      <c r="C121" s="9" t="s">
         <v>665</v>
       </c>
-      <c r="C121" s="9" t="s">
-        <v>666</v>
-      </c>
       <c r="D121" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="B122" s="16" t="s">
         <v>667</v>
       </c>
-      <c r="B122" s="16" t="s">
+      <c r="C122" s="11" t="s">
         <v>668</v>
       </c>
-      <c r="C122" s="11" t="s">
-        <v>669</v>
-      </c>
       <c r="D122" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="B123" s="16" t="s">
         <v>670</v>
       </c>
-      <c r="B123" s="16" t="s">
+      <c r="C123" s="9" t="s">
         <v>671</v>
       </c>
-      <c r="C123" s="9" t="s">
-        <v>672</v>
-      </c>
       <c r="D123" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="B124" s="16" t="s">
         <v>673</v>
       </c>
-      <c r="B124" s="16" t="s">
+      <c r="C124" s="9" t="s">
         <v>674</v>
       </c>
-      <c r="C124" s="9" t="s">
-        <v>675</v>
-      </c>
       <c r="D124" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
+        <v>675</v>
+      </c>
+      <c r="B125" s="16" t="s">
         <v>676</v>
       </c>
-      <c r="B125" s="16" t="s">
+      <c r="C125" s="9" t="s">
         <v>677</v>
       </c>
-      <c r="C125" s="9" t="s">
+      <c r="D125" s="8" t="s">
         <v>678</v>
-      </c>
-      <c r="D125" s="8" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="B126" s="16" t="s">
         <v>680</v>
       </c>
-      <c r="B126" s="16" t="s">
+      <c r="C126" s="9" t="s">
         <v>681</v>
       </c>
-      <c r="C126" s="9" t="s">
-        <v>682</v>
-      </c>
       <c r="D126" s="8" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="16" t="s">
+        <v>682</v>
+      </c>
+      <c r="B127" s="16" t="s">
         <v>683</v>
       </c>
-      <c r="B127" s="16" t="s">
+      <c r="C127" s="11" t="s">
         <v>684</v>
       </c>
-      <c r="C127" s="11" t="s">
-        <v>685</v>
-      </c>
       <c r="D127" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="B128" s="16" t="s">
         <v>686</v>
       </c>
-      <c r="B128" s="16" t="s">
+      <c r="C128" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="C128" s="9" t="s">
-        <v>688</v>
-      </c>
       <c r="D128" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="16" t="s">
+        <v>688</v>
+      </c>
+      <c r="B129" s="16" t="s">
         <v>689</v>
       </c>
-      <c r="B129" s="16" t="s">
+      <c r="C129" s="17" t="s">
         <v>690</v>
       </c>
-      <c r="C129" s="17" t="s">
-        <v>691</v>
-      </c>
       <c r="D129" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="B130" s="16" t="s">
         <v>692</v>
       </c>
-      <c r="B130" s="16" t="s">
+      <c r="C130" s="9" t="s">
         <v>693</v>
       </c>
-      <c r="C130" s="9" t="s">
-        <v>694</v>
-      </c>
       <c r="D130" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
+        <v>694</v>
+      </c>
+      <c r="B131" s="16" t="s">
         <v>695</v>
       </c>
-      <c r="B131" s="16" t="s">
+      <c r="C131" s="9" t="s">
         <v>696</v>
       </c>
-      <c r="C131" s="9" t="s">
-        <v>697</v>
-      </c>
       <c r="D131" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
+        <v>697</v>
+      </c>
+      <c r="B132" s="16" t="s">
         <v>698</v>
       </c>
-      <c r="B132" s="16" t="s">
+      <c r="C132" s="9" t="s">
         <v>699</v>
       </c>
-      <c r="C132" s="9" t="s">
-        <v>700</v>
-      </c>
       <c r="D132" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="16" t="s">
+        <v>700</v>
+      </c>
+      <c r="B133" s="16" t="s">
         <v>701</v>
       </c>
-      <c r="B133" s="16" t="s">
+      <c r="C133" s="17" t="s">
         <v>702</v>
       </c>
-      <c r="C133" s="17" t="s">
+      <c r="D133" s="7" t="s">
         <v>703</v>
-      </c>
-      <c r="D133" s="7" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="16" t="s">
+        <v>704</v>
+      </c>
+      <c r="B134" s="16" t="s">
         <v>705</v>
       </c>
-      <c r="B134" s="16" t="s">
+      <c r="C134" s="17" t="s">
         <v>706</v>
       </c>
-      <c r="C134" s="17" t="s">
+      <c r="D134" s="8" t="s">
         <v>707</v>
-      </c>
-      <c r="D134" s="8" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="B135" s="16" t="s">
         <v>709</v>
       </c>
-      <c r="B135" s="16" t="s">
+      <c r="C135" s="9" t="s">
         <v>710</v>
       </c>
-      <c r="C135" s="9" t="s">
-        <v>711</v>
-      </c>
       <c r="D135" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="16" t="s">
+        <v>711</v>
+      </c>
+      <c r="B136" s="16" t="s">
         <v>712</v>
       </c>
-      <c r="B136" s="16" t="s">
+      <c r="C136" s="17" t="s">
         <v>713</v>
       </c>
-      <c r="C136" s="17" t="s">
-        <v>714</v>
-      </c>
       <c r="D136" s="8" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="B137" s="16" t="s">
         <v>715</v>
       </c>
-      <c r="B137" s="16" t="s">
+      <c r="C137" s="11" t="s">
         <v>716</v>
       </c>
-      <c r="C137" s="11" t="s">
-        <v>717</v>
-      </c>
       <c r="D137" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="16" t="s">
+        <v>717</v>
+      </c>
+      <c r="B138" s="22" t="s">
         <v>718</v>
       </c>
-      <c r="B138" s="22" t="s">
+      <c r="C138" s="17" t="s">
         <v>719</v>
       </c>
-      <c r="C138" s="17" t="s">
-        <v>720</v>
-      </c>
       <c r="D138" s="23" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="16" t="s">
+        <v>720</v>
+      </c>
+      <c r="B139" s="16" t="s">
         <v>721</v>
       </c>
-      <c r="B139" s="16" t="s">
+      <c r="C139" s="11" t="s">
         <v>722</v>
       </c>
-      <c r="C139" s="11" t="s">
-        <v>723</v>
-      </c>
       <c r="D139" s="20" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="B140" s="16" t="s">
         <v>724</v>
       </c>
-      <c r="B140" s="16" t="s">
+      <c r="C140" s="9" t="s">
         <v>725</v>
       </c>
-      <c r="C140" s="9" t="s">
-        <v>726</v>
-      </c>
       <c r="D140" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="B141" s="16" t="s">
         <v>727</v>
       </c>
-      <c r="B141" s="16" t="s">
+      <c r="C141" s="9" t="s">
         <v>728</v>
       </c>
-      <c r="C141" s="9" t="s">
+      <c r="D141" s="8" t="s">
         <v>729</v>
-      </c>
-      <c r="D141" s="8" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
+        <v>730</v>
+      </c>
+      <c r="B142" s="16" t="s">
         <v>731</v>
       </c>
-      <c r="B142" s="16" t="s">
+      <c r="C142" s="9" t="s">
         <v>732</v>
       </c>
-      <c r="C142" s="9" t="s">
-        <v>733</v>
-      </c>
       <c r="D142" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="B143" s="16" t="s">
         <v>734</v>
       </c>
-      <c r="B143" s="16" t="s">
+      <c r="C143" s="9" t="s">
         <v>735</v>
       </c>
-      <c r="C143" s="9" t="s">
-        <v>736</v>
-      </c>
       <c r="D143" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="s">
+        <v>736</v>
+      </c>
+      <c r="B144" s="16" t="s">
         <v>737</v>
       </c>
-      <c r="B144" s="16" t="s">
+      <c r="C144" s="9" t="s">
         <v>738</v>
       </c>
-      <c r="C144" s="9" t="s">
-        <v>739</v>
-      </c>
       <c r="D144" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="16" t="s">
+        <v>739</v>
+      </c>
+      <c r="B145" s="16" t="s">
         <v>740</v>
       </c>
-      <c r="B145" s="16" t="s">
+      <c r="C145" s="17" t="s">
         <v>741</v>
       </c>
-      <c r="C145" s="17" t="s">
+      <c r="D145" s="8" t="s">
         <v>742</v>
-      </c>
-      <c r="D145" s="8" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="B146" s="16" t="s">
         <v>744</v>
       </c>
-      <c r="B146" s="16" t="s">
+      <c r="C146" s="9" t="s">
         <v>745</v>
       </c>
-      <c r="C146" s="9" t="s">
-        <v>746</v>
-      </c>
       <c r="D146" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="B147" s="16" t="s">
         <v>747</v>
       </c>
-      <c r="B147" s="16" t="s">
+      <c r="C147" s="9" t="s">
         <v>748</v>
       </c>
-      <c r="C147" s="9" t="s">
-        <v>749</v>
-      </c>
       <c r="D147" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="8" t="s">
+        <v>749</v>
+      </c>
+      <c r="B148" s="16" t="s">
         <v>750</v>
       </c>
-      <c r="B148" s="16" t="s">
+      <c r="C148" s="9" t="s">
         <v>751</v>
       </c>
-      <c r="C148" s="9" t="s">
+      <c r="D148" s="8" t="s">
         <v>752</v>
-      </c>
-      <c r="D148" s="8" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="8" t="s">
+        <v>753</v>
+      </c>
+      <c r="B149" s="16" t="s">
         <v>754</v>
       </c>
-      <c r="B149" s="16" t="s">
-        <v>755</v>
-      </c>
       <c r="C149" s="9" t="s">
+        <v>751</v>
+      </c>
+      <c r="D149" s="8" t="s">
         <v>752</v>
-      </c>
-      <c r="D149" s="8" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="B150" s="16" t="s">
         <v>756</v>
       </c>
-      <c r="B150" s="16" t="s">
-        <v>757</v>
-      </c>
       <c r="C150" s="9" t="s">
+        <v>751</v>
+      </c>
+      <c r="D150" s="8" t="s">
         <v>752</v>
-      </c>
-      <c r="D150" s="8" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="8" t="s">
+        <v>757</v>
+      </c>
+      <c r="B151" s="16" t="s">
         <v>758</v>
       </c>
-      <c r="B151" s="16" t="s">
-        <v>759</v>
-      </c>
       <c r="C151" s="9" t="s">
+        <v>751</v>
+      </c>
+      <c r="D151" s="8" t="s">
         <v>752</v>
-      </c>
-      <c r="D151" s="8" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="16" t="s">
+        <v>759</v>
+      </c>
+      <c r="B152" s="16" t="s">
         <v>760</v>
       </c>
-      <c r="B152" s="16" t="s">
-        <v>761</v>
-      </c>
       <c r="C152" s="9" t="s">
+        <v>751</v>
+      </c>
+      <c r="D152" s="8" t="s">
         <v>752</v>
-      </c>
-      <c r="D152" s="8" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="8" t="s">
+        <v>761</v>
+      </c>
+      <c r="B153" s="16" t="s">
         <v>762</v>
       </c>
-      <c r="B153" s="16" t="s">
+      <c r="C153" s="9" t="s">
         <v>763</v>
       </c>
-      <c r="C153" s="9" t="s">
+      <c r="D153" s="24" t="s">
         <v>764</v>
-      </c>
-      <c r="D153" s="24" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="16" t="s">
+        <v>765</v>
+      </c>
+      <c r="B154" s="16" t="s">
         <v>766</v>
       </c>
-      <c r="B154" s="16" t="s">
+      <c r="C154" s="17" t="s">
         <v>767</v>
       </c>
-      <c r="C154" s="17" t="s">
-        <v>768</v>
-      </c>
       <c r="D154" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="16" t="s">
+        <v>768</v>
+      </c>
+      <c r="B155" s="16" t="s">
         <v>769</v>
       </c>
-      <c r="B155" s="16" t="s">
+      <c r="C155" s="17" t="s">
         <v>770</v>
       </c>
-      <c r="C155" s="17" t="s">
-        <v>771</v>
-      </c>
       <c r="D155" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="16" t="s">
+        <v>771</v>
+      </c>
+      <c r="B156" s="16" t="s">
         <v>772</v>
       </c>
-      <c r="B156" s="16" t="s">
+      <c r="C156" s="17" t="s">
         <v>773</v>
       </c>
-      <c r="C156" s="17" t="s">
+      <c r="D156" s="7" t="s">
         <v>774</v>
-      </c>
-      <c r="D156" s="7" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="8" t="s">
+        <v>775</v>
+      </c>
+      <c r="B157" s="16" t="s">
         <v>776</v>
       </c>
-      <c r="B157" s="16" t="s">
+      <c r="C157" s="9" t="s">
         <v>777</v>
       </c>
-      <c r="C157" s="9" t="s">
-        <v>778</v>
-      </c>
       <c r="D157" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="16" t="s">
+        <v>778</v>
+      </c>
+      <c r="B158" s="16" t="s">
         <v>779</v>
       </c>
-      <c r="B158" s="16" t="s">
+      <c r="C158" s="17" t="s">
         <v>780</v>
       </c>
-      <c r="C158" s="17" t="s">
+      <c r="D158" s="7" t="s">
         <v>781</v>
-      </c>
-      <c r="D158" s="7" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="8" t="s">
+        <v>782</v>
+      </c>
+      <c r="B159" s="16" t="s">
         <v>783</v>
       </c>
-      <c r="B159" s="16" t="s">
+      <c r="C159" s="9" t="s">
         <v>784</v>
       </c>
-      <c r="C159" s="9" t="s">
-        <v>785</v>
-      </c>
       <c r="D159" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="s">
+        <v>785</v>
+      </c>
+      <c r="B160" s="16" t="s">
         <v>786</v>
       </c>
-      <c r="B160" s="16" t="s">
+      <c r="C160" s="12" t="s">
         <v>787</v>
       </c>
-      <c r="C160" s="12" t="s">
+      <c r="D160" s="8" t="s">
         <v>788</v>
-      </c>
-      <c r="D160" s="8" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="16" t="s">
+        <v>789</v>
+      </c>
+      <c r="B161" s="16" t="s">
         <v>790</v>
       </c>
-      <c r="B161" s="16" t="s">
+      <c r="C161" s="18" t="s">
         <v>791</v>
       </c>
-      <c r="C161" s="18" t="s">
+      <c r="D161" s="7" t="s">
         <v>792</v>
-      </c>
-      <c r="D161" s="7" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="16" t="s">
+        <v>793</v>
+      </c>
+      <c r="B162" s="16" t="s">
         <v>794</v>
       </c>
-      <c r="B162" s="16" t="s">
+      <c r="C162" s="18" t="s">
         <v>795</v>
       </c>
-      <c r="C162" s="18" t="s">
+      <c r="D162" s="7" t="s">
         <v>796</v>
-      </c>
-      <c r="D162" s="7" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="8" t="s">
+        <v>797</v>
+      </c>
+      <c r="B163" s="16" t="s">
         <v>798</v>
       </c>
-      <c r="B163" s="16" t="s">
+      <c r="C163" s="19" t="s">
         <v>799</v>
       </c>
-      <c r="C163" s="19" t="s">
+      <c r="D163" s="8" t="s">
         <v>800</v>
-      </c>
-      <c r="D163" s="8" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="s">
+        <v>801</v>
+      </c>
+      <c r="B164" s="16" t="s">
         <v>802</v>
       </c>
-      <c r="B164" s="16" t="s">
+      <c r="C164" s="12" t="s">
         <v>803</v>
       </c>
-      <c r="C164" s="12" t="s">
-        <v>804</v>
-      </c>
       <c r="D164" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="22" t="s">
+        <v>804</v>
+      </c>
+      <c r="B165" s="16" t="s">
         <v>805</v>
       </c>
-      <c r="B165" s="16" t="s">
+      <c r="C165" s="18" t="s">
         <v>806</v>
       </c>
-      <c r="C165" s="18" t="s">
+      <c r="D165" s="8" t="s">
         <v>807</v>
-      </c>
-      <c r="D165" s="8" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="16" t="s">
+        <v>808</v>
+      </c>
+      <c r="B166" s="16" t="s">
         <v>809</v>
       </c>
-      <c r="B166" s="16" t="s">
+      <c r="C166" s="19" t="s">
         <v>810</v>
       </c>
-      <c r="C166" s="19" t="s">
-        <v>811</v>
-      </c>
       <c r="D166" s="20" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="8" t="s">
+        <v>811</v>
+      </c>
+      <c r="B167" s="16" t="s">
         <v>812</v>
       </c>
-      <c r="B167" s="16" t="s">
+      <c r="C167" s="9" t="s">
         <v>813</v>
       </c>
-      <c r="C167" s="9" t="s">
-        <v>814</v>
-      </c>
       <c r="D167" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="8" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B168" s="22" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
+        <v>888</v>
+      </c>
+      <c r="B169" s="22" t="s">
+        <v>887</v>
+      </c>
+      <c r="C169" s="12" t="s">
         <v>889</v>
       </c>
-      <c r="B169" s="22" t="s">
-        <v>888</v>
-      </c>
-      <c r="C169" s="12" t="s">
-        <v>890</v>
-      </c>
       <c r="D169" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="B170" s="25" t="s">
         <v>815</v>
-      </c>
-      <c r="B170" s="25" t="s">
-        <v>816</v>
       </c>
       <c r="C170" s="9"/>
       <c r="D170" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="26" t="s">
+        <v>816</v>
+      </c>
+      <c r="B171" s="27" t="s">
         <v>817</v>
       </c>
-      <c r="B171" s="27" t="s">
+      <c r="C171" s="10" t="s">
         <v>818</v>
       </c>
-      <c r="C171" s="10" t="s">
-        <v>819</v>
-      </c>
       <c r="D171" s="26" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="22" t="s">
+        <v>819</v>
+      </c>
+      <c r="B172" s="22" t="s">
         <v>820</v>
       </c>
-      <c r="B172" s="22" t="s">
+      <c r="C172" s="18" t="s">
         <v>821</v>
       </c>
-      <c r="C172" s="18" t="s">
-        <v>822</v>
-      </c>
       <c r="D172" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="16" t="s">
+        <v>822</v>
+      </c>
+      <c r="B173" s="22" t="s">
         <v>823</v>
       </c>
-      <c r="B173" s="22" t="s">
+      <c r="C173" s="18" t="s">
         <v>824</v>
       </c>
-      <c r="C173" s="18" t="s">
-        <v>825</v>
-      </c>
       <c r="D173" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="8" t="s">
+        <v>825</v>
+      </c>
+      <c r="B174" s="16" t="s">
         <v>826</v>
       </c>
-      <c r="B174" s="16" t="s">
+      <c r="C174" s="12" t="s">
         <v>827</v>
       </c>
-      <c r="C174" s="12" t="s">
-        <v>828</v>
-      </c>
       <c r="D174" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="8" t="s">
+        <v>828</v>
+      </c>
+      <c r="B175" s="16" t="s">
         <v>829</v>
       </c>
-      <c r="B175" s="16" t="s">
+      <c r="C175" s="12" t="s">
         <v>830</v>
       </c>
-      <c r="C175" s="12" t="s">
-        <v>831</v>
-      </c>
       <c r="D175" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="8" t="s">
+        <v>831</v>
+      </c>
+      <c r="B176" s="16" t="s">
         <v>832</v>
       </c>
-      <c r="B176" s="16" t="s">
+      <c r="C176" s="19" t="s">
         <v>833</v>
       </c>
-      <c r="C176" s="19" t="s">
-        <v>834</v>
-      </c>
       <c r="D176" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="16" t="s">
+        <v>834</v>
+      </c>
+      <c r="B177" s="16" t="s">
         <v>835</v>
       </c>
-      <c r="B177" s="16" t="s">
+      <c r="C177" s="18" t="s">
         <v>836</v>
       </c>
-      <c r="C177" s="18" t="s">
-        <v>837</v>
-      </c>
       <c r="D177" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="8" t="s">
+        <v>837</v>
+      </c>
+      <c r="B178" s="16" t="s">
         <v>838</v>
       </c>
-      <c r="B178" s="16" t="s">
+      <c r="C178" s="12" t="s">
         <v>839</v>
       </c>
-      <c r="C178" s="12" t="s">
+      <c r="D178" s="7" t="s">
         <v>840</v>
-      </c>
-      <c r="D178" s="7" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="16" t="s">
+        <v>841</v>
+      </c>
+      <c r="B179" s="16" t="s">
         <v>842</v>
       </c>
-      <c r="B179" s="16" t="s">
+      <c r="C179" s="10" t="s">
         <v>843</v>
       </c>
-      <c r="C179" s="10" t="s">
-        <v>844</v>
-      </c>
       <c r="D179" s="7" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="8" t="s">
+        <v>844</v>
+      </c>
+      <c r="B180" s="16" t="s">
         <v>845</v>
       </c>
-      <c r="B180" s="16" t="s">
+      <c r="C180" s="19" t="s">
         <v>846</v>
       </c>
-      <c r="C180" s="19" t="s">
-        <v>847</v>
-      </c>
       <c r="D180" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="B181" s="16" t="s">
         <v>848</v>
       </c>
-      <c r="B181" s="16" t="s">
+      <c r="C181" s="12" t="s">
         <v>849</v>
       </c>
-      <c r="C181" s="12" t="s">
-        <v>850</v>
-      </c>
       <c r="D181" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="8" t="s">
+        <v>850</v>
+      </c>
+      <c r="B182" s="16" t="s">
         <v>851</v>
       </c>
-      <c r="B182" s="16" t="s">
+      <c r="C182" s="12" t="s">
         <v>852</v>
       </c>
-      <c r="C182" s="12" t="s">
-        <v>853</v>
-      </c>
       <c r="D182" s="8" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="8" t="s">
+        <v>853</v>
+      </c>
+      <c r="B183" s="16" t="s">
         <v>854</v>
       </c>
-      <c r="B183" s="16" t="s">
+      <c r="C183" s="12" t="s">
         <v>855</v>
       </c>
-      <c r="C183" s="12" t="s">
-        <v>856</v>
-      </c>
       <c r="D183" s="8" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="8" t="s">
+        <v>856</v>
+      </c>
+      <c r="B184" s="16" t="s">
         <v>857</v>
       </c>
-      <c r="B184" s="16" t="s">
+      <c r="C184" s="12" t="s">
         <v>858</v>
       </c>
-      <c r="C184" s="12" t="s">
-        <v>859</v>
-      </c>
       <c r="D184" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="8" t="s">
+        <v>859</v>
+      </c>
+      <c r="B185" s="16" t="s">
         <v>860</v>
       </c>
-      <c r="B185" s="16" t="s">
+      <c r="C185" s="12" t="s">
         <v>861</v>
       </c>
-      <c r="C185" s="12" t="s">
-        <v>862</v>
-      </c>
       <c r="D185" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="8" t="s">
+        <v>862</v>
+      </c>
+      <c r="B186" s="16" t="s">
         <v>863</v>
       </c>
-      <c r="B186" s="16" t="s">
+      <c r="C186" s="12" t="s">
         <v>864</v>
       </c>
-      <c r="C186" s="12" t="s">
-        <v>865</v>
-      </c>
       <c r="D186" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="8" t="s">
+        <v>865</v>
+      </c>
+      <c r="B187" s="16" t="s">
         <v>866</v>
       </c>
-      <c r="B187" s="16" t="s">
+      <c r="C187" s="19" t="s">
         <v>867</v>
       </c>
-      <c r="C187" s="19" t="s">
+      <c r="D187" s="20" t="s">
         <v>868</v>
-      </c>
-      <c r="D187" s="20" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="16" t="s">
+        <v>869</v>
+      </c>
+      <c r="B188" s="16" t="s">
         <v>870</v>
       </c>
-      <c r="B188" s="16" t="s">
+      <c r="C188" s="28" t="s">
         <v>871</v>
       </c>
-      <c r="C188" s="28" t="s">
-        <v>872</v>
-      </c>
       <c r="D188" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="16" t="s">
+        <v>872</v>
+      </c>
+      <c r="B189" s="16" t="s">
         <v>873</v>
       </c>
-      <c r="B189" s="16" t="s">
+      <c r="C189" s="18" t="s">
         <v>874</v>
       </c>
-      <c r="C189" s="18" t="s">
-        <v>875</v>
-      </c>
       <c r="D189" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="16" t="s">
+        <v>875</v>
+      </c>
+      <c r="B190" s="16" t="s">
         <v>876</v>
       </c>
-      <c r="B190" s="16" t="s">
+      <c r="C190" s="18" t="s">
         <v>877</v>
       </c>
-      <c r="C190" s="18" t="s">
+      <c r="D190" s="8" t="s">
         <v>878</v>
-      </c>
-      <c r="D190" s="8" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="8" t="s">
+        <v>879</v>
+      </c>
+      <c r="B191" s="16" t="s">
         <v>880</v>
       </c>
-      <c r="B191" s="16" t="s">
+      <c r="C191" s="12" t="s">
         <v>881</v>
       </c>
-      <c r="C191" s="12" t="s">
-        <v>882</v>
-      </c>
       <c r="D191" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="16" t="s">
+        <v>882</v>
+      </c>
+      <c r="B192" s="22" t="s">
         <v>883</v>
       </c>
-      <c r="B192" s="22" t="s">
+      <c r="C192" s="17" t="s">
         <v>884</v>
       </c>
-      <c r="C192" s="17" t="s">
+      <c r="D192" s="7" t="s">
         <v>885</v>
-      </c>
-      <c r="D192" s="7" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -16383,44 +16383,44 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
+        <v>901</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>902</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="C1" s="30" t="s">
+        <v>904</v>
+      </c>
+      <c r="D1" s="30" t="s">
         <v>903</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>905</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
+        <v>899</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>900</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>901</v>
-      </c>
       <c r="C2" s="32" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C3" s="32" t="s">
+        <v>906</v>
+      </c>
+      <c r="D3" s="32" t="s">
         <v>907</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>908</v>
       </c>
     </row>
   </sheetData>
@@ -16430,23 +16430,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Doc_x0020_Category xmlns="D77E192D-40C8-42D6-ACAD-759333CE872E" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010003FE97044DB4FC4F901CA467E5223028" ma:contentTypeVersion="" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9a3f50da6d73106df175a7d9ecf5a4cc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="D77E192D-40C8-42D6-ACAD-759333CE872E" xmlns:ns3="d77e192d-40c8-42d6-acad-759333ce872e" xmlns:ns4="8df9d228-deee-4e36-845e-447b583fc1fe" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="72405369cf94f89852b763e35ae66afc" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="D77E192D-40C8-42D6-ACAD-759333CE872E"/>
@@ -16662,33 +16645,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C24D1664-4FDC-4778-99E5-9EDACEFF3E08}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="D77E192D-40C8-42D6-ACAD-759333CE872E"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8df9d228-deee-4e36-845e-447b583fc1fe"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d77e192d-40c8-42d6-acad-759333ce872e"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3633D6CF-EA3A-4FA7-BECE-ED6AD27EBC88}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Doc_x0020_Category xmlns="D77E192D-40C8-42D6-ACAD-759333CE872E" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{662A7507-D437-4535-ACBF-CE8183D0E8AF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16706,4 +16680,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3633D6CF-EA3A-4FA7-BECE-ED6AD27EBC88}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C24D1664-4FDC-4778-99E5-9EDACEFF3E08}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="D77E192D-40C8-42D6-ACAD-759333CE872E"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8df9d228-deee-4e36-845e-447b583fc1fe"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d77e192d-40c8-42d6-acad-759333ce872e"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>